--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel10/field_64ha_100ha_2%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>577.9898508924584</v>
+        <v>630.0623614239137</v>
       </c>
       <c r="AB2" t="n">
-        <v>790.8312131036469</v>
+        <v>862.0791192898148</v>
       </c>
       <c r="AC2" t="n">
-        <v>715.3553920636127</v>
+        <v>779.8034980804372</v>
       </c>
       <c r="AD2" t="n">
-        <v>577989.8508924585</v>
+        <v>630062.3614239136</v>
       </c>
       <c r="AE2" t="n">
-        <v>790831.2131036469</v>
+        <v>862079.1192898148</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.841551646794487e-06</v>
+        <v>3.113234429702892e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.00260416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>715355.3920636127</v>
+        <v>779803.4980804372</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>297.1580689929701</v>
+        <v>328.4016111152636</v>
       </c>
       <c r="AB3" t="n">
-        <v>406.5847796849512</v>
+        <v>449.3335723844713</v>
       </c>
       <c r="AC3" t="n">
-        <v>367.7808989571409</v>
+        <v>406.4498068797262</v>
       </c>
       <c r="AD3" t="n">
-        <v>297158.06899297</v>
+        <v>328401.6111152635</v>
       </c>
       <c r="AE3" t="n">
-        <v>406584.7796849512</v>
+        <v>449333.5723844713</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.852238960551855e-06</v>
+        <v>4.821851480074714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.102864583333332</v>
       </c>
       <c r="AH3" t="n">
-        <v>367780.8989571409</v>
+        <v>406449.8068797262</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>246.5892464208636</v>
+        <v>277.7474476885886</v>
       </c>
       <c r="AB4" t="n">
-        <v>337.3942857026361</v>
+        <v>380.0263112801217</v>
       </c>
       <c r="AC4" t="n">
-        <v>305.193848611131</v>
+        <v>343.7571335018239</v>
       </c>
       <c r="AD4" t="n">
-        <v>246589.2464208636</v>
+        <v>277747.4476885886</v>
       </c>
       <c r="AE4" t="n">
-        <v>337394.2857026361</v>
+        <v>380026.3112801217</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.229344370276197e-06</v>
+        <v>5.459366885751554e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.273871527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>305193.848611131</v>
+        <v>343757.1335018239</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>219.7416822414592</v>
+        <v>250.9851348552012</v>
       </c>
       <c r="AB5" t="n">
-        <v>300.6602639614546</v>
+        <v>343.4089341914044</v>
       </c>
       <c r="AC5" t="n">
-        <v>271.965670348393</v>
+        <v>310.6344674897455</v>
       </c>
       <c r="AD5" t="n">
-        <v>219741.6822414592</v>
+        <v>250985.1348552012</v>
       </c>
       <c r="AE5" t="n">
-        <v>300660.2639614546</v>
+        <v>343408.9341914044</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.42522630877624e-06</v>
+        <v>5.790515021703525e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.915798611111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>271965.670348393</v>
+        <v>310634.4674897455</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>210.0272804940103</v>
+        <v>241.2707331077523</v>
       </c>
       <c r="AB6" t="n">
-        <v>287.3685909214435</v>
+        <v>330.1172611513933</v>
       </c>
       <c r="AC6" t="n">
-        <v>259.942535928336</v>
+        <v>298.6113330696885</v>
       </c>
       <c r="AD6" t="n">
-        <v>210027.2804940103</v>
+        <v>241270.7331077523</v>
       </c>
       <c r="AE6" t="n">
-        <v>287368.5909214435</v>
+        <v>330117.2611513933</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.549029669334418e-06</v>
+        <v>5.999810745379556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.709635416666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>259942.535928336</v>
+        <v>298611.3330696885</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>203.7100949714247</v>
+        <v>234.9535475851667</v>
       </c>
       <c r="AB7" t="n">
-        <v>278.7251389948902</v>
+        <v>321.47380922484</v>
       </c>
       <c r="AC7" t="n">
-        <v>252.1240029224892</v>
+        <v>290.7928000638416</v>
       </c>
       <c r="AD7" t="n">
-        <v>203710.0949714247</v>
+        <v>234953.5475851667</v>
       </c>
       <c r="AE7" t="n">
-        <v>278725.1389948903</v>
+        <v>321473.80922484</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.633059099577524e-06</v>
+        <v>6.141866666426635e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.577256944444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>252124.0029224892</v>
+        <v>290792.8000638416</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>198.4150224389325</v>
+        <v>229.4878828520823</v>
       </c>
       <c r="AB8" t="n">
-        <v>271.4801871538246</v>
+        <v>313.9954456089275</v>
       </c>
       <c r="AC8" t="n">
-        <v>245.5704991167789</v>
+        <v>284.0281609754803</v>
       </c>
       <c r="AD8" t="n">
-        <v>198415.0224389324</v>
+        <v>229487.8828520823</v>
       </c>
       <c r="AE8" t="n">
-        <v>271480.1871538246</v>
+        <v>313995.4456089275</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.702243330477682e-06</v>
+        <v>6.258826041422065e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.473090277777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>245570.4991167789</v>
+        <v>284028.1609754803</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>194.9940642320776</v>
+        <v>226.0669246452275</v>
       </c>
       <c r="AB9" t="n">
-        <v>266.7994812131837</v>
+        <v>309.3147396682866</v>
       </c>
       <c r="AC9" t="n">
-        <v>241.3365131816992</v>
+        <v>279.7941750404007</v>
       </c>
       <c r="AD9" t="n">
-        <v>194994.0642320776</v>
+        <v>226066.9246452275</v>
       </c>
       <c r="AE9" t="n">
-        <v>266799.4812131837</v>
+        <v>309314.7396682866</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.745658536103287e-06</v>
+        <v>6.332221600629722e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.41015625</v>
       </c>
       <c r="AH9" t="n">
-        <v>241336.5131816992</v>
+        <v>279794.1750404006</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>192.2503922420377</v>
+        <v>223.3232526551876</v>
       </c>
       <c r="AB10" t="n">
-        <v>263.0454681541475</v>
+        <v>305.5607266092504</v>
       </c>
       <c r="AC10" t="n">
-        <v>237.9407778602258</v>
+        <v>276.3984397189272</v>
       </c>
       <c r="AD10" t="n">
-        <v>192250.3922420377</v>
+        <v>223323.2526551876</v>
       </c>
       <c r="AE10" t="n">
-        <v>263045.4681541475</v>
+        <v>305560.7266092504</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.780857530771789e-06</v>
+        <v>6.391727247557221e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>237940.7778602258</v>
+        <v>276398.4397189272</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>190.2032626220905</v>
+        <v>221.2761230352404</v>
       </c>
       <c r="AB11" t="n">
-        <v>260.2444950951523</v>
+        <v>302.7597535502552</v>
       </c>
       <c r="AC11" t="n">
-        <v>235.4071257387898</v>
+        <v>273.8647875974912</v>
       </c>
       <c r="AD11" t="n">
-        <v>190203.2626220905</v>
+        <v>221276.1230352404</v>
       </c>
       <c r="AE11" t="n">
-        <v>260244.4950951523</v>
+        <v>302759.7535502552</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.803825575038238e-06</v>
+        <v>6.430555865976756e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.327690972222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>235407.1257387898</v>
+        <v>273864.7875974912</v>
       </c>
     </row>
     <row r="12">
@@ -6762,28 +6762,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>187.7303418336556</v>
+        <v>218.8032022468055</v>
       </c>
       <c r="AB12" t="n">
-        <v>256.860935774852</v>
+        <v>299.3761942299549</v>
       </c>
       <c r="AC12" t="n">
-        <v>232.3464885711625</v>
+        <v>270.804150429864</v>
       </c>
       <c r="AD12" t="n">
-        <v>187730.3418336556</v>
+        <v>218803.2022468055</v>
       </c>
       <c r="AE12" t="n">
-        <v>256860.935774852</v>
+        <v>299376.1942299549</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.828100743775136e-06</v>
+        <v>6.471594243168135e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.29296875</v>
       </c>
       <c r="AH12" t="n">
-        <v>232346.4885711625</v>
+        <v>270804.1504298639</v>
       </c>
     </row>
     <row r="13">
@@ -6868,28 +6868,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>185.5941581898818</v>
+        <v>206.4232161075942</v>
       </c>
       <c r="AB13" t="n">
-        <v>253.9381150716709</v>
+        <v>282.4373510278525</v>
       </c>
       <c r="AC13" t="n">
-        <v>229.7026177736875</v>
+        <v>255.481926649149</v>
       </c>
       <c r="AD13" t="n">
-        <v>185594.1581898818</v>
+        <v>206423.2161075942</v>
       </c>
       <c r="AE13" t="n">
-        <v>253938.1150716709</v>
+        <v>282437.3510278524</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.851255520108792e-06</v>
+        <v>6.510738541412219e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.260416666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>229702.6177736875</v>
+        <v>255481.926649149</v>
       </c>
     </row>
     <row r="14">
@@ -6974,28 +6974,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>183.8413441044281</v>
+        <v>204.6704020221405</v>
       </c>
       <c r="AB14" t="n">
-        <v>251.5398375112545</v>
+        <v>280.039073467436</v>
       </c>
       <c r="AC14" t="n">
-        <v>227.5332284576328</v>
+        <v>253.3125373330943</v>
       </c>
       <c r="AD14" t="n">
-        <v>183841.344104428</v>
+        <v>204670.4020221404</v>
       </c>
       <c r="AE14" t="n">
-        <v>251539.8375112545</v>
+        <v>280039.073467436</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.863859934645257e-06</v>
+        <v>6.53204692956928e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.243055555555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>227533.2284576328</v>
+        <v>253312.5373330943</v>
       </c>
     </row>
     <row r="15">
@@ -7080,28 +7080,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>181.3454365965581</v>
+        <v>202.1744945142706</v>
       </c>
       <c r="AB15" t="n">
-        <v>248.1248267473206</v>
+        <v>276.6240627035021</v>
       </c>
       <c r="AC15" t="n">
-        <v>224.44414152801</v>
+        <v>250.2234504034715</v>
       </c>
       <c r="AD15" t="n">
-        <v>181345.4365965581</v>
+        <v>202174.4945142706</v>
       </c>
       <c r="AE15" t="n">
-        <v>248124.8267473206</v>
+        <v>276624.0627035021</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.889535593886206e-06</v>
+        <v>6.575452905444777e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH15" t="n">
-        <v>224444.14152801</v>
+        <v>250223.4504034715</v>
       </c>
     </row>
     <row r="16">
@@ -7186,28 +7186,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>179.6235415710204</v>
+        <v>200.4525994887328</v>
       </c>
       <c r="AB16" t="n">
-        <v>245.7688540087339</v>
+        <v>274.2680899649154</v>
       </c>
       <c r="AC16" t="n">
-        <v>222.3130195209647</v>
+        <v>248.0923283964262</v>
       </c>
       <c r="AD16" t="n">
-        <v>179623.5415710204</v>
+        <v>200452.5994887328</v>
       </c>
       <c r="AE16" t="n">
-        <v>245768.8540087339</v>
+        <v>274268.0899649154</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.902140008422673e-06</v>
+        <v>6.596761293601841e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.193142361111111</v>
       </c>
       <c r="AH16" t="n">
-        <v>222313.0195209647</v>
+        <v>248092.3283964262</v>
       </c>
     </row>
     <row r="17">
@@ -7292,28 +7292,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>178.0701046147368</v>
+        <v>198.8991625324492</v>
       </c>
       <c r="AB17" t="n">
-        <v>243.6433730323459</v>
+        <v>272.1426089885275</v>
       </c>
       <c r="AC17" t="n">
-        <v>220.3903914658312</v>
+        <v>246.1697003412928</v>
       </c>
       <c r="AD17" t="n">
-        <v>178070.1046147368</v>
+        <v>198899.1625324492</v>
       </c>
       <c r="AE17" t="n">
-        <v>243643.3730323459</v>
+        <v>272142.6089885274</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.914464324858328e-06</v>
+        <v>6.617596162022078e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.17578125</v>
       </c>
       <c r="AH17" t="n">
-        <v>220390.3914658312</v>
+        <v>246169.7003412928</v>
       </c>
     </row>
     <row r="18">
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>177.40186375892</v>
+        <v>198.2309216766324</v>
       </c>
       <c r="AB18" t="n">
-        <v>242.729056412712</v>
+        <v>271.2282923688935</v>
       </c>
       <c r="AC18" t="n">
-        <v>219.5633359411234</v>
+        <v>245.3426448165849</v>
       </c>
       <c r="AD18" t="n">
-        <v>177401.86375892</v>
+        <v>198230.9216766324</v>
       </c>
       <c r="AE18" t="n">
-        <v>242729.056412712</v>
+        <v>271228.2923688935</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.911756709883829e-06</v>
+        <v>6.613018804566116e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.180121527777778</v>
       </c>
       <c r="AH18" t="n">
-        <v>219563.3359411234</v>
+        <v>245342.6448165849</v>
       </c>
     </row>
     <row r="19">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>175.4438685612536</v>
+        <v>196.272926478966</v>
       </c>
       <c r="AB19" t="n">
-        <v>240.0500410026144</v>
+        <v>268.549276958796</v>
       </c>
       <c r="AC19" t="n">
-        <v>217.140002001743</v>
+        <v>242.9193108772046</v>
       </c>
       <c r="AD19" t="n">
-        <v>175443.8685612536</v>
+        <v>196272.926478966</v>
       </c>
       <c r="AE19" t="n">
-        <v>240050.0410026145</v>
+        <v>268549.276958796</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.925948346991554e-06</v>
+        <v>6.637010471231846e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.160590277777778</v>
       </c>
       <c r="AH19" t="n">
-        <v>217140.002001743</v>
+        <v>242919.3108772046</v>
       </c>
     </row>
     <row r="20">
@@ -7610,28 +7610,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>174.209851576435</v>
+        <v>195.0389094941475</v>
       </c>
       <c r="AB20" t="n">
-        <v>238.3616045229995</v>
+        <v>266.860840479181</v>
       </c>
       <c r="AC20" t="n">
-        <v>215.6127075300065</v>
+        <v>241.392016405468</v>
       </c>
       <c r="AD20" t="n">
-        <v>174209.851576435</v>
+        <v>195038.9094941475</v>
       </c>
       <c r="AE20" t="n">
-        <v>238361.6045229995</v>
+        <v>266860.840479181</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.937339003091175e-06</v>
+        <v>6.656266940529339e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.145399305555555</v>
       </c>
       <c r="AH20" t="n">
-        <v>215612.7075300065</v>
+        <v>241392.016405468</v>
       </c>
     </row>
     <row r="21">
@@ -7716,28 +7716,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>172.9045328715068</v>
+        <v>193.7335907892192</v>
       </c>
       <c r="AB21" t="n">
-        <v>236.5756098843205</v>
+        <v>265.0748458405021</v>
       </c>
       <c r="AC21" t="n">
-        <v>213.9971657129832</v>
+        <v>239.7764745884448</v>
       </c>
       <c r="AD21" t="n">
-        <v>172904.5328715068</v>
+        <v>193733.5907892192</v>
       </c>
       <c r="AE21" t="n">
-        <v>236575.6098843205</v>
+        <v>265074.8458405021</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.937058904990364e-06</v>
+        <v>6.655793420792516e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.145399305555555</v>
       </c>
       <c r="AH21" t="n">
-        <v>213997.1657129832</v>
+        <v>239776.4745884447</v>
       </c>
     </row>
     <row r="22">
@@ -7822,28 +7822,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>173.1605964586795</v>
+        <v>193.9896543763919</v>
       </c>
       <c r="AB22" t="n">
-        <v>236.9259673810182</v>
+        <v>265.4252033371998</v>
       </c>
       <c r="AC22" t="n">
-        <v>214.3140855819261</v>
+        <v>240.0933944573876</v>
       </c>
       <c r="AD22" t="n">
-        <v>173160.5964586795</v>
+        <v>193989.6543763919</v>
       </c>
       <c r="AE22" t="n">
-        <v>236925.9673810182</v>
+        <v>265425.2033371998</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.934444656049468e-06</v>
+        <v>6.651373903248828e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH22" t="n">
-        <v>214314.0855819261</v>
+        <v>240093.3944573876</v>
       </c>
     </row>
     <row r="23">
@@ -7928,28 +7928,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>173.4859671700869</v>
+        <v>194.3150250877993</v>
       </c>
       <c r="AB23" t="n">
-        <v>237.3711539427083</v>
+        <v>265.8703898988899</v>
       </c>
       <c r="AC23" t="n">
-        <v>214.7167841629918</v>
+        <v>240.4960930384534</v>
       </c>
       <c r="AD23" t="n">
-        <v>173485.9671700869</v>
+        <v>194315.0250877993</v>
       </c>
       <c r="AE23" t="n">
-        <v>237371.1539427083</v>
+        <v>265870.3898988899</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.935751780519915e-06</v>
+        <v>6.653583662020671e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH23" t="n">
-        <v>214716.7841629919</v>
+        <v>240496.0930384534</v>
       </c>
     </row>
   </sheetData>
@@ -8225,28 +8225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>413.1848267784745</v>
+        <v>463.467073797183</v>
       </c>
       <c r="AB2" t="n">
-        <v>565.3377084263693</v>
+        <v>634.1360970935452</v>
       </c>
       <c r="AC2" t="n">
-        <v>511.3826709906131</v>
+        <v>573.6150380025387</v>
       </c>
       <c r="AD2" t="n">
-        <v>413184.8267784745</v>
+        <v>463467.073797183</v>
       </c>
       <c r="AE2" t="n">
-        <v>565337.7084263694</v>
+        <v>634136.0970935452</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.24678017052245e-06</v>
+        <v>3.890953695102112e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.329427083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>511382.6709906131</v>
+        <v>573615.0380025386</v>
       </c>
     </row>
     <row r="3">
@@ -8331,28 +8331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>241.0516813652648</v>
+        <v>271.4087257514198</v>
       </c>
       <c r="AB3" t="n">
-        <v>329.8175448934411</v>
+        <v>371.3533922810119</v>
       </c>
       <c r="AC3" t="n">
-        <v>298.3402213107407</v>
+        <v>335.9119457194708</v>
       </c>
       <c r="AD3" t="n">
-        <v>241051.6813652648</v>
+        <v>271408.7257514198</v>
       </c>
       <c r="AE3" t="n">
-        <v>329817.5448934411</v>
+        <v>371353.3922810119</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.182793696123562e-06</v>
+        <v>5.511933501620665e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.586371527777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>298340.2213107407</v>
+        <v>335911.9457194708</v>
       </c>
     </row>
     <row r="4">
@@ -8437,28 +8437,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>203.5076976804998</v>
+        <v>243.6992873467966</v>
       </c>
       <c r="AB4" t="n">
-        <v>278.4482100923087</v>
+        <v>333.4401162015033</v>
       </c>
       <c r="AC4" t="n">
-        <v>251.8735037256979</v>
+        <v>301.6170594974734</v>
       </c>
       <c r="AD4" t="n">
-        <v>203507.6976804998</v>
+        <v>243699.2873467965</v>
       </c>
       <c r="AE4" t="n">
-        <v>278448.2100923087</v>
+        <v>333440.1162015033</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.519781745945281e-06</v>
+        <v>6.095526375931183e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>251873.5037256979</v>
+        <v>301617.0594974734</v>
       </c>
     </row>
     <row r="5">
@@ -8543,28 +8543,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.0852545121626</v>
+        <v>221.3569580437426</v>
       </c>
       <c r="AB5" t="n">
-        <v>261.4512753098844</v>
+        <v>302.8703555750768</v>
       </c>
       <c r="AC5" t="n">
-        <v>236.4987325435549</v>
+        <v>273.9648339202947</v>
       </c>
       <c r="AD5" t="n">
-        <v>191085.2545121626</v>
+        <v>221356.9580437426</v>
       </c>
       <c r="AE5" t="n">
-        <v>261451.2753098843</v>
+        <v>302870.3555750768</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.700300709865256e-06</v>
+        <v>6.408147494327961e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.6640625</v>
       </c>
       <c r="AH5" t="n">
-        <v>236498.7325435549</v>
+        <v>273964.8339202947</v>
       </c>
     </row>
     <row r="6">
@@ -8649,28 +8649,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>184.0702037261784</v>
+        <v>214.3419072577584</v>
       </c>
       <c r="AB6" t="n">
-        <v>251.8529733423071</v>
+        <v>293.2720536074995</v>
       </c>
       <c r="AC6" t="n">
-        <v>227.8164790444587</v>
+        <v>265.2825804211986</v>
       </c>
       <c r="AD6" t="n">
-        <v>184070.2037261784</v>
+        <v>214341.9072577584</v>
       </c>
       <c r="AE6" t="n">
-        <v>251852.9733423071</v>
+        <v>293272.0536074995</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.802778302545348e-06</v>
+        <v>6.585617267799861e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.512152777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>227816.4790444587</v>
+        <v>265282.5804211986</v>
       </c>
     </row>
     <row r="7">
@@ -8755,28 +8755,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>178.6895883941398</v>
+        <v>208.7906997251276</v>
       </c>
       <c r="AB7" t="n">
-        <v>244.4909780690202</v>
+        <v>285.6766465593658</v>
       </c>
       <c r="AC7" t="n">
-        <v>221.1571022674268</v>
+        <v>258.4120683615156</v>
       </c>
       <c r="AD7" t="n">
-        <v>178689.5883941398</v>
+        <v>208790.6997251276</v>
       </c>
       <c r="AE7" t="n">
-        <v>244490.9780690202</v>
+        <v>285676.6465593658</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.878887956675333e-06</v>
+        <v>6.717423282404816e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>221157.1022674268</v>
+        <v>258412.0683615156</v>
       </c>
     </row>
     <row r="8">
@@ -8861,28 +8861,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>175.084788277711</v>
+        <v>205.1858996086988</v>
       </c>
       <c r="AB8" t="n">
-        <v>239.5587315171677</v>
+        <v>280.7444000075133</v>
       </c>
       <c r="AC8" t="n">
-        <v>216.6955824040299</v>
+        <v>253.9505484981188</v>
       </c>
       <c r="AD8" t="n">
-        <v>175084.788277711</v>
+        <v>205185.8996086988</v>
       </c>
       <c r="AE8" t="n">
-        <v>239558.7315171677</v>
+        <v>280744.4000075132</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.930657975220601e-06</v>
+        <v>6.807078134978745e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.33203125</v>
       </c>
       <c r="AH8" t="n">
-        <v>216695.5824040299</v>
+        <v>253950.5484981188</v>
       </c>
     </row>
     <row r="9">
@@ -8967,28 +8967,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>171.5876736939856</v>
+        <v>191.7688988902567</v>
       </c>
       <c r="AB9" t="n">
-        <v>234.7738250619102</v>
+        <v>262.3866677082535</v>
       </c>
       <c r="AC9" t="n">
-        <v>212.3673407052023</v>
+        <v>237.3448524042555</v>
       </c>
       <c r="AD9" t="n">
-        <v>171587.6736939856</v>
+        <v>191768.8988902566</v>
       </c>
       <c r="AE9" t="n">
-        <v>234773.8250619102</v>
+        <v>262386.6677082535</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.976632842436176e-06</v>
+        <v>6.886696996592906e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.271267361111111</v>
       </c>
       <c r="AH9" t="n">
-        <v>212367.3407052023</v>
+        <v>237344.8524042555</v>
       </c>
     </row>
     <row r="10">
@@ -9073,28 +9073,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>169.3111792092159</v>
+        <v>189.4924044054869</v>
       </c>
       <c r="AB10" t="n">
-        <v>231.6590248760013</v>
+        <v>259.2718675223446</v>
       </c>
       <c r="AC10" t="n">
-        <v>209.549812677386</v>
+        <v>234.5273243764392</v>
       </c>
       <c r="AD10" t="n">
-        <v>169311.1792092159</v>
+        <v>189492.4044054869</v>
       </c>
       <c r="AE10" t="n">
-        <v>231659.0248760013</v>
+        <v>259271.8675223446</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.998654417489013e-06</v>
+        <v>6.924833762240025e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>209549.812677386</v>
+        <v>234527.3243764392</v>
       </c>
     </row>
     <row r="11">
@@ -9179,28 +9179,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>166.3875456781319</v>
+        <v>186.568770874403</v>
       </c>
       <c r="AB11" t="n">
-        <v>227.6587804971659</v>
+        <v>255.2716231435092</v>
       </c>
       <c r="AC11" t="n">
-        <v>205.9313460076872</v>
+        <v>230.9088577067403</v>
       </c>
       <c r="AD11" t="n">
-        <v>166387.5456781319</v>
+        <v>186568.770874403</v>
       </c>
       <c r="AE11" t="n">
-        <v>227658.7804971659</v>
+        <v>255271.6231435092</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.032362881056735e-06</v>
+        <v>6.983209776322676e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.197482638888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>205931.3460076872</v>
+        <v>230908.8577067403</v>
       </c>
     </row>
     <row r="12">
@@ -9285,28 +9285,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>164.2994018269487</v>
+        <v>184.4806270232197</v>
       </c>
       <c r="AB12" t="n">
-        <v>224.8016899575733</v>
+        <v>252.4145326039166</v>
       </c>
       <c r="AC12" t="n">
-        <v>203.3469321792406</v>
+        <v>228.3244438782938</v>
       </c>
       <c r="AD12" t="n">
-        <v>164299.4018269487</v>
+        <v>184480.6270232197</v>
       </c>
       <c r="AE12" t="n">
-        <v>224801.6899575733</v>
+        <v>252414.5326039166</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.044049769571619e-06</v>
+        <v>7.003449024758209e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>203346.9321792406</v>
+        <v>228324.4438782938</v>
       </c>
     </row>
     <row r="13">
@@ -9391,28 +9391,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>161.5375938186752</v>
+        <v>181.7188190149463</v>
       </c>
       <c r="AB13" t="n">
-        <v>221.0228623982854</v>
+        <v>248.6357050446288</v>
       </c>
       <c r="AC13" t="n">
-        <v>199.9287506185922</v>
+        <v>224.9062623176454</v>
       </c>
       <c r="AD13" t="n">
-        <v>161537.5938186753</v>
+        <v>181718.8190149463</v>
       </c>
       <c r="AE13" t="n">
-        <v>221022.8623982854</v>
+        <v>248635.7050446288</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.070707465688212e-06</v>
+        <v>7.049614583173141e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH13" t="n">
-        <v>199928.7506185922</v>
+        <v>224906.2623176454</v>
       </c>
     </row>
     <row r="14">
@@ -9497,28 +9497,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>159.9586085552727</v>
+        <v>180.1398337515438</v>
       </c>
       <c r="AB14" t="n">
-        <v>218.8624251009858</v>
+        <v>246.4752677473291</v>
       </c>
       <c r="AC14" t="n">
-        <v>197.9745024247533</v>
+        <v>222.9520141238065</v>
       </c>
       <c r="AD14" t="n">
-        <v>159958.6085552727</v>
+        <v>180139.8337515438</v>
       </c>
       <c r="AE14" t="n">
-        <v>218862.4251009858</v>
+        <v>246475.2677473291</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.078337748272309e-06</v>
+        <v>7.062828637936837e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>197974.5024247533</v>
+        <v>222952.0141238065</v>
       </c>
     </row>
     <row r="15">
@@ -9603,28 +9603,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>158.7780072173171</v>
+        <v>178.9592324135882</v>
       </c>
       <c r="AB15" t="n">
-        <v>217.2470742659406</v>
+        <v>244.8599169122839</v>
       </c>
       <c r="AC15" t="n">
-        <v>196.5133184062452</v>
+        <v>221.4908301052983</v>
       </c>
       <c r="AD15" t="n">
-        <v>158778.0072173171</v>
+        <v>178959.2324135881</v>
       </c>
       <c r="AE15" t="n">
-        <v>217247.0742659406</v>
+        <v>244859.9169122839</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.09234269731907e-06</v>
+        <v>7.087082282756276e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.121527777777778</v>
       </c>
       <c r="AH15" t="n">
-        <v>196513.3184062452</v>
+        <v>221490.8301052983</v>
       </c>
     </row>
     <row r="16">
@@ -9709,28 +9709,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>158.3637915841229</v>
+        <v>178.5450167803938</v>
       </c>
       <c r="AB16" t="n">
-        <v>216.6803261627004</v>
+        <v>244.2931688090437</v>
       </c>
       <c r="AC16" t="n">
-        <v>196.0006599465422</v>
+        <v>220.9781716455953</v>
       </c>
       <c r="AD16" t="n">
-        <v>158363.7915841228</v>
+        <v>178545.0167803938</v>
       </c>
       <c r="AE16" t="n">
-        <v>216680.3261627004</v>
+        <v>244293.1688090437</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.09234269731907e-06</v>
+        <v>7.087082282756276e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.121527777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>196000.6599465421</v>
+        <v>220978.1716455953</v>
       </c>
     </row>
     <row r="17">
@@ -9815,28 +9815,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>158.9168864087152</v>
+        <v>179.0981116049862</v>
       </c>
       <c r="AB17" t="n">
-        <v>217.4370949025288</v>
+        <v>245.0499375488722</v>
       </c>
       <c r="AC17" t="n">
-        <v>196.6852037399732</v>
+        <v>221.6627154390263</v>
       </c>
       <c r="AD17" t="n">
-        <v>158916.8864087152</v>
+        <v>179098.1116049862</v>
       </c>
       <c r="AE17" t="n">
-        <v>217437.0949025288</v>
+        <v>245049.9375488721</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.0917631821861e-06</v>
+        <v>7.086078683660298e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.121527777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>196685.2037399732</v>
+        <v>221662.7154390263</v>
       </c>
     </row>
   </sheetData>
@@ -10112,28 +10112,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>182.6090783482786</v>
+        <v>210.0405160409959</v>
       </c>
       <c r="AB2" t="n">
-        <v>249.8537971399633</v>
+        <v>287.3867003807404</v>
       </c>
       <c r="AC2" t="n">
-        <v>226.0081014130045</v>
+        <v>259.9589170462544</v>
       </c>
       <c r="AD2" t="n">
-        <v>182609.0783482786</v>
+        <v>210040.5160409959</v>
       </c>
       <c r="AE2" t="n">
-        <v>249853.7971399633</v>
+        <v>287386.7003807403</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.550995224233046e-06</v>
+        <v>6.719247101915334e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.586371527777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>226008.1014130045</v>
+        <v>259958.9170462544</v>
       </c>
     </row>
     <row r="3">
@@ -10218,28 +10218,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>139.4886737133163</v>
+        <v>166.834770551462</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.8545571804453</v>
+        <v>228.2706932990248</v>
       </c>
       <c r="AC3" t="n">
-        <v>172.6396661092508</v>
+        <v>206.4848587105619</v>
       </c>
       <c r="AD3" t="n">
-        <v>139488.6737133163</v>
+        <v>166834.770551462</v>
       </c>
       <c r="AE3" t="n">
-        <v>190854.5571804453</v>
+        <v>228270.6932990248</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.207565058700319e-06</v>
+        <v>7.961618515805957e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.557725694444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>172639.6661092508</v>
+        <v>206484.8587105619</v>
       </c>
     </row>
     <row r="4">
@@ -10324,28 +10324,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>129.431654994981</v>
+        <v>156.6071596325345</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.0941004856736</v>
+        <v>214.2768248294063</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.1924880885015</v>
+        <v>193.8265454071615</v>
       </c>
       <c r="AD4" t="n">
-        <v>129431.654994981</v>
+        <v>156607.1596325345</v>
       </c>
       <c r="AE4" t="n">
-        <v>177094.1004856736</v>
+        <v>214276.8248294063</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.424517632039555e-06</v>
+        <v>8.372139470527201e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.286458333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>160192.4880885015</v>
+        <v>193826.5454071615</v>
       </c>
     </row>
     <row r="5">
@@ -10430,28 +10430,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>123.0904949661198</v>
+        <v>141.3213157001013</v>
       </c>
       <c r="AB5" t="n">
-        <v>168.4178455819535</v>
+        <v>193.3620587972216</v>
       </c>
       <c r="AC5" t="n">
-        <v>152.3442827755894</v>
+        <v>174.9078552910234</v>
       </c>
       <c r="AD5" t="n">
-        <v>123090.4949661198</v>
+        <v>141321.3157001013</v>
       </c>
       <c r="AE5" t="n">
-        <v>168417.8455819535</v>
+        <v>193362.0587972216</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.538221042309249e-06</v>
+        <v>8.587290790562429e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.154079861111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>152344.2827755894</v>
+        <v>174907.8552910234</v>
       </c>
     </row>
     <row r="6">
@@ -10536,28 +10536,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.0882160372763</v>
+        <v>141.3190367712579</v>
       </c>
       <c r="AB6" t="n">
-        <v>168.4147274509706</v>
+        <v>193.3589406662387</v>
       </c>
       <c r="AC6" t="n">
-        <v>152.3414622346513</v>
+        <v>174.9050347500852</v>
       </c>
       <c r="AD6" t="n">
-        <v>123088.2160372763</v>
+        <v>141319.0367712579</v>
       </c>
       <c r="AE6" t="n">
-        <v>168414.7274509706</v>
+        <v>193358.9406662387</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.54339427803716e-06</v>
+        <v>8.597079665786782e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>152341.4622346513</v>
+        <v>174905.0347500852</v>
       </c>
     </row>
   </sheetData>
@@ -10833,28 +10833,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>246.5744866810011</v>
+        <v>284.3904175963018</v>
       </c>
       <c r="AB2" t="n">
-        <v>337.3740907754024</v>
+        <v>389.1155157750037</v>
       </c>
       <c r="AC2" t="n">
-        <v>305.1755810594087</v>
+        <v>351.978877076493</v>
       </c>
       <c r="AD2" t="n">
-        <v>246574.4866810011</v>
+        <v>284390.4175963018</v>
       </c>
       <c r="AE2" t="n">
-        <v>337374.0907754024</v>
+        <v>389115.5157750037</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.033986404358262e-06</v>
+        <v>5.52726432341064e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.374131944444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>305175.5810594087</v>
+        <v>351978.877076493</v>
       </c>
     </row>
     <row r="3">
@@ -10939,28 +10939,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>170.0352093604882</v>
+        <v>198.5251016974052</v>
       </c>
       <c r="AB3" t="n">
-        <v>232.6496748709276</v>
+        <v>271.6308024516212</v>
       </c>
       <c r="AC3" t="n">
-        <v>210.4459164271829</v>
+        <v>245.7067399019437</v>
       </c>
       <c r="AD3" t="n">
-        <v>170035.2093604882</v>
+        <v>198525.1016974052</v>
       </c>
       <c r="AE3" t="n">
-        <v>232649.6748709276</v>
+        <v>271630.8024516212</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.797277417457705e-06</v>
+        <v>6.917814781719923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.891927083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>210445.9164271828</v>
+        <v>245706.7399019437</v>
       </c>
     </row>
     <row r="4">
@@ -11045,28 +11045,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.4718785072863</v>
+        <v>183.7911786436111</v>
       </c>
       <c r="AB4" t="n">
-        <v>212.723483108774</v>
+        <v>251.4711989146209</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.4214524402171</v>
+        <v>227.471140632327</v>
       </c>
       <c r="AD4" t="n">
-        <v>155471.8785072863</v>
+        <v>183791.1786436111</v>
       </c>
       <c r="AE4" t="n">
-        <v>212723.483108774</v>
+        <v>251471.1989146209</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068445236510999e-06</v>
+        <v>7.41182365722356e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.499131944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>192421.4524402171</v>
+        <v>227471.1406323269</v>
       </c>
     </row>
     <row r="5">
@@ -11151,28 +11151,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.0877944105537</v>
+        <v>176.4070945468785</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.6202534848304</v>
+        <v>241.3679692906773</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.2824608716076</v>
+        <v>218.3321490637175</v>
       </c>
       <c r="AD5" t="n">
-        <v>148087.7944105537</v>
+        <v>176407.0945468785</v>
       </c>
       <c r="AE5" t="n">
-        <v>202620.2534848304</v>
+        <v>241367.9692906773</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.198564547402732e-06</v>
+        <v>7.648872783035568e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.329861111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>183282.4608716076</v>
+        <v>218332.1490637175</v>
       </c>
     </row>
     <row r="6">
@@ -11257,28 +11257,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.111964178247</v>
+        <v>161.1053152447427</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.443858925969</v>
+        <v>220.4313997826465</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.8864099337995</v>
+        <v>199.3937363648667</v>
       </c>
       <c r="AD6" t="n">
-        <v>142111.964178247</v>
+        <v>161105.3152447427</v>
       </c>
       <c r="AE6" t="n">
-        <v>194443.858925969</v>
+        <v>220431.3997826465</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.294246576331043e-06</v>
+        <v>7.823184660019363e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.210503472222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>175886.4099337995</v>
+        <v>199393.7363648667</v>
       </c>
     </row>
     <row r="7">
@@ -11363,28 +11363,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.214880830532</v>
+        <v>157.2082318970277</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.1116975624448</v>
+        <v>215.0992384191223</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.0631425670729</v>
+        <v>194.57046899814</v>
       </c>
       <c r="AD7" t="n">
-        <v>138214.880830532</v>
+        <v>157208.2318970277</v>
       </c>
       <c r="AE7" t="n">
-        <v>189111.6975624448</v>
+        <v>215099.2384191223</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.346108710545417e-06</v>
+        <v>7.917666205410363e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>171063.1425670729</v>
+        <v>194570.46899814</v>
       </c>
     </row>
     <row r="8">
@@ -11469,28 +11469,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>135.6196619497604</v>
+        <v>154.6130130162561</v>
       </c>
       <c r="AB8" t="n">
-        <v>185.5608045967982</v>
+        <v>211.5483454534758</v>
       </c>
       <c r="AC8" t="n">
-        <v>167.851141842357</v>
+        <v>191.3584682734241</v>
       </c>
       <c r="AD8" t="n">
-        <v>135619.6619497604</v>
+        <v>154613.0130162561</v>
       </c>
       <c r="AE8" t="n">
-        <v>185560.8045967983</v>
+        <v>211548.3454534758</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.377452823470208e-06</v>
+        <v>7.974768372008499e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>167851.141842357</v>
+        <v>191358.4682734241</v>
       </c>
     </row>
     <row r="9">
@@ -11575,28 +11575,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.8962183638337</v>
+        <v>154.8895694303294</v>
       </c>
       <c r="AB9" t="n">
-        <v>185.9392012833412</v>
+        <v>211.9267421400187</v>
       </c>
       <c r="AC9" t="n">
-        <v>168.1934248802194</v>
+        <v>191.7007513112866</v>
       </c>
       <c r="AD9" t="n">
-        <v>135896.2183638337</v>
+        <v>154889.5694303294</v>
       </c>
       <c r="AE9" t="n">
-        <v>185939.2012833412</v>
+        <v>211926.7421400187</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.377762140374072e-06</v>
+        <v>7.975331880231507e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.110677083333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>168193.4248802194</v>
+        <v>191700.7513112866</v>
       </c>
     </row>
   </sheetData>
@@ -11872,28 +11872,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.4417736115712</v>
+        <v>174.7644721667522</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.1045834441225</v>
+        <v>239.1204608828046</v>
       </c>
       <c r="AC2" t="n">
-        <v>183.7205670593464</v>
+        <v>216.2991397038936</v>
       </c>
       <c r="AD2" t="n">
-        <v>148441.7736115712</v>
+        <v>174764.4721667522</v>
       </c>
       <c r="AE2" t="n">
-        <v>203104.5834441225</v>
+        <v>239120.4608828046</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.99537858544843e-06</v>
+        <v>7.829654714630174e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.080729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>183720.5670593464</v>
+        <v>216299.1397038936</v>
       </c>
     </row>
     <row r="3">
@@ -11978,28 +11978,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2048482554752</v>
+        <v>143.4422059560845</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.3648440960463</v>
+        <v>196.2639544125308</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.0598484490361</v>
+        <v>177.5327980616445</v>
       </c>
       <c r="AD3" t="n">
-        <v>117204.8482554752</v>
+        <v>143442.2059560845</v>
       </c>
       <c r="AE3" t="n">
-        <v>160364.8440960463</v>
+        <v>196263.9544125308</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.553930138689526e-06</v>
+        <v>8.92423579341105e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.334201388888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>145059.8484490361</v>
+        <v>177532.7980616445</v>
       </c>
     </row>
     <row r="4">
@@ -12084,28 +12084,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>112.6758479866931</v>
+        <v>130.2812374293786</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.1680661229116</v>
+        <v>178.2565366533476</v>
       </c>
       <c r="AC4" t="n">
-        <v>139.4544822684229</v>
+        <v>161.2439829798224</v>
       </c>
       <c r="AD4" t="n">
-        <v>112675.8479866931</v>
+        <v>130281.2374293786</v>
       </c>
       <c r="AE4" t="n">
-        <v>154168.0661229116</v>
+        <v>178256.5366533475</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.667991067096876e-06</v>
+        <v>9.147758462604983e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.203993055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>139454.4822684228</v>
+        <v>161243.9829798224</v>
       </c>
     </row>
   </sheetData>
@@ -12381,28 +12381,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>443.450066308782</v>
+        <v>494.3285987588624</v>
       </c>
       <c r="AB2" t="n">
-        <v>606.74794435987</v>
+        <v>676.3621970605055</v>
       </c>
       <c r="AC2" t="n">
-        <v>548.8407721262515</v>
+        <v>611.8111382533557</v>
       </c>
       <c r="AD2" t="n">
-        <v>443450.066308782</v>
+        <v>494328.5987588624</v>
       </c>
       <c r="AE2" t="n">
-        <v>606747.9443598699</v>
+        <v>676362.1970605055</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.142269743341706e-06</v>
+        <v>3.6857348343639e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.696180555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>548840.7721262515</v>
+        <v>611811.1382533557</v>
       </c>
     </row>
     <row r="3">
@@ -12487,28 +12487,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.434643631097</v>
+        <v>293.0521287365929</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.392216046398</v>
+        <v>400.9668510848762</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.4284677080526</v>
+        <v>362.6991375778449</v>
       </c>
       <c r="AD3" t="n">
-        <v>252434.643631097</v>
+        <v>293052.1287365929</v>
       </c>
       <c r="AE3" t="n">
-        <v>345392.216046398</v>
+        <v>400966.8510848762</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.091794601656782e-06</v>
+        <v>5.319374508949035e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.71875</v>
       </c>
       <c r="AH3" t="n">
-        <v>312428.4677080526</v>
+        <v>362699.1375778448</v>
       </c>
     </row>
     <row r="4">
@@ -12593,28 +12593,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.7240477609611</v>
+        <v>252.1659158849884</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.3726239210303</v>
+        <v>345.0245308887409</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.4191664802486</v>
+        <v>312.0958739057928</v>
       </c>
       <c r="AD4" t="n">
-        <v>221724.0477609611</v>
+        <v>252165.9158849884</v>
       </c>
       <c r="AE4" t="n">
-        <v>303372.6239210303</v>
+        <v>345024.5308887409</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.442027611392151e-06</v>
+        <v>5.921943820371111e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.03515625</v>
       </c>
       <c r="AH4" t="n">
-        <v>274419.1664802486</v>
+        <v>312095.8739057928</v>
       </c>
     </row>
     <row r="5">
@@ -12699,28 +12699,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>198.0378258745451</v>
+        <v>228.5649453445929</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.9640901736922</v>
+        <v>312.7326417940521</v>
       </c>
       <c r="AC5" t="n">
-        <v>245.1036577080835</v>
+        <v>282.8858773843399</v>
       </c>
       <c r="AD5" t="n">
-        <v>198037.8258745451</v>
+        <v>228564.9453445929</v>
       </c>
       <c r="AE5" t="n">
-        <v>270964.0901736922</v>
+        <v>312732.6417940521</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.629731063726412e-06</v>
+        <v>6.244884082655531e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.72265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>245103.6577080835</v>
+        <v>282885.8773843399</v>
       </c>
     </row>
     <row r="6">
@@ -12805,28 +12805,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>190.0901390429126</v>
+        <v>220.6172585129604</v>
       </c>
       <c r="AB6" t="n">
-        <v>260.0897144234611</v>
+        <v>301.858266043821</v>
       </c>
       <c r="AC6" t="n">
-        <v>235.2671171171687</v>
+        <v>273.0493367934251</v>
       </c>
       <c r="AD6" t="n">
-        <v>190090.1390429126</v>
+        <v>220617.2585129604</v>
       </c>
       <c r="AE6" t="n">
-        <v>260089.7144234611</v>
+        <v>301858.266043821</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.743061450041437e-06</v>
+        <v>6.43986688252537e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.549045138888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>235267.1171171687</v>
+        <v>273049.3367934251</v>
       </c>
     </row>
     <row r="7">
@@ -12911,28 +12911,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>184.9963689101062</v>
+        <v>215.3528961795619</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.1201934064807</v>
+        <v>294.6553332519937</v>
       </c>
       <c r="AC7" t="n">
-        <v>228.9627574042625</v>
+        <v>266.5338417978679</v>
       </c>
       <c r="AD7" t="n">
-        <v>184996.3689101062</v>
+        <v>215352.8961795619</v>
       </c>
       <c r="AE7" t="n">
-        <v>253120.1934064807</v>
+        <v>294655.3332519937</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.815041560268548e-06</v>
+        <v>6.563707309469727e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.444878472222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>228962.7574042625</v>
+        <v>266533.8417978679</v>
       </c>
     </row>
     <row r="8">
@@ -13017,28 +13017,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>180.9379706884781</v>
+        <v>211.2944979579338</v>
       </c>
       <c r="AB8" t="n">
-        <v>247.5673139157586</v>
+        <v>289.1024537612716</v>
       </c>
       <c r="AC8" t="n">
-        <v>223.9398369386179</v>
+        <v>261.5109213322233</v>
       </c>
       <c r="AD8" t="n">
-        <v>180937.9706884781</v>
+        <v>211294.4979579338</v>
       </c>
       <c r="AE8" t="n">
-        <v>247567.3139157586</v>
+        <v>289102.4537612717</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.870270979950786e-06</v>
+        <v>6.658728488122513e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.366753472222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>223939.8369386179</v>
+        <v>261510.9213322233</v>
       </c>
     </row>
     <row r="9">
@@ -13123,28 +13123,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>177.5108170379154</v>
+        <v>207.867344307371</v>
       </c>
       <c r="AB9" t="n">
-        <v>242.8781310957128</v>
+        <v>284.4132709412258</v>
       </c>
       <c r="AC9" t="n">
-        <v>219.6981831456064</v>
+        <v>257.2692675392117</v>
       </c>
       <c r="AD9" t="n">
-        <v>177510.8170379154</v>
+        <v>207867.344307371</v>
       </c>
       <c r="AE9" t="n">
-        <v>242878.1310957128</v>
+        <v>284413.2709412259</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.915928576464525e-06</v>
+        <v>6.737281524894398e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.303819444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>219698.1831456064</v>
+        <v>257269.2675392117</v>
       </c>
     </row>
     <row r="10">
@@ -13229,28 +13229,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>175.1664855093713</v>
+        <v>195.5179879979542</v>
       </c>
       <c r="AB10" t="n">
-        <v>239.6705132737527</v>
+        <v>267.5163368235411</v>
       </c>
       <c r="AC10" t="n">
-        <v>216.7966958666532</v>
+        <v>241.9849530987174</v>
       </c>
       <c r="AD10" t="n">
-        <v>175166.4855093713</v>
+        <v>195517.9879979542</v>
       </c>
       <c r="AE10" t="n">
-        <v>239670.5132737527</v>
+        <v>267516.336823541</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.940145289080826e-06</v>
+        <v>6.77894592385307e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.271267361111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>216796.6958666532</v>
+        <v>241984.9530987174</v>
       </c>
     </row>
     <row r="11">
@@ -13335,28 +13335,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>172.2252847936358</v>
+        <v>192.5767872822187</v>
       </c>
       <c r="AB11" t="n">
-        <v>235.6462326978675</v>
+        <v>263.4920562476559</v>
       </c>
       <c r="AC11" t="n">
-        <v>213.156486980816</v>
+        <v>238.3447442128801</v>
       </c>
       <c r="AD11" t="n">
-        <v>172225.2847936357</v>
+        <v>192576.7872822187</v>
       </c>
       <c r="AE11" t="n">
-        <v>235646.2326978675</v>
+        <v>263492.0562476558</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.975656753035957e-06</v>
+        <v>6.840042730231204e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.225694444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>213156.486980816</v>
+        <v>238344.7442128801</v>
       </c>
     </row>
     <row r="12">
@@ -13441,28 +13441,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>169.6396390151005</v>
+        <v>189.9911415036834</v>
       </c>
       <c r="AB12" t="n">
-        <v>232.1084380730363</v>
+        <v>259.9542616228246</v>
       </c>
       <c r="AC12" t="n">
-        <v>209.9563345096516</v>
+        <v>235.1445917417157</v>
       </c>
       <c r="AD12" t="n">
-        <v>169639.6390151005</v>
+        <v>189991.1415036834</v>
       </c>
       <c r="AE12" t="n">
-        <v>232108.4380730363</v>
+        <v>259954.2616228246</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.998820565103724e-06</v>
+        <v>6.879895633582979e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH12" t="n">
-        <v>209956.3345096516</v>
+        <v>235144.5917417157</v>
       </c>
     </row>
     <row r="13">
@@ -13547,28 +13547,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>168.3791718364361</v>
+        <v>188.7306743250191</v>
       </c>
       <c r="AB13" t="n">
-        <v>230.3838112713013</v>
+        <v>258.2296348210897</v>
       </c>
       <c r="AC13" t="n">
-        <v>208.3963036693447</v>
+        <v>233.5845609014089</v>
       </c>
       <c r="AD13" t="n">
-        <v>168379.1718364361</v>
+        <v>188730.6743250191</v>
       </c>
       <c r="AE13" t="n">
-        <v>230383.8112713014</v>
+        <v>258229.6348210897</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.010976780527717e-06</v>
+        <v>6.90081017377172e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.177951388888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>208396.3036693448</v>
+        <v>233584.5609014089</v>
       </c>
     </row>
     <row r="14">
@@ -13653,28 +13653,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>165.4496815874107</v>
+        <v>185.8011840759937</v>
       </c>
       <c r="AB14" t="n">
-        <v>226.3755534725983</v>
+        <v>254.2213770223866</v>
       </c>
       <c r="AC14" t="n">
-        <v>204.7705883693235</v>
+        <v>229.9588456013876</v>
       </c>
       <c r="AD14" t="n">
-        <v>165449.6815874107</v>
+        <v>185801.1840759937</v>
       </c>
       <c r="AE14" t="n">
-        <v>226375.5534725983</v>
+        <v>254221.3770223866</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.024951642353725e-06</v>
+        <v>6.924853660917832e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.160590277777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>204770.5883693235</v>
+        <v>229958.8456013876</v>
       </c>
     </row>
     <row r="15">
@@ -13759,28 +13759,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>163.4720559822578</v>
+        <v>183.8235584708408</v>
       </c>
       <c r="AB15" t="n">
-        <v>223.6696788729452</v>
+        <v>251.5155024227336</v>
       </c>
       <c r="AC15" t="n">
-        <v>202.3229586437416</v>
+        <v>227.5112158758058</v>
       </c>
       <c r="AD15" t="n">
-        <v>163472.0559822579</v>
+        <v>183823.5584708408</v>
       </c>
       <c r="AE15" t="n">
-        <v>223669.6788729453</v>
+        <v>251515.5024227336</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.046583962714533e-06</v>
+        <v>6.962071661568662e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.132378472222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>202322.9586437416</v>
+        <v>227511.2158758058</v>
       </c>
     </row>
     <row r="16">
@@ -13865,28 +13865,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>162.908194664877</v>
+        <v>183.2596971534599</v>
       </c>
       <c r="AB16" t="n">
-        <v>222.8981789426995</v>
+        <v>250.7440024924878</v>
       </c>
       <c r="AC16" t="n">
-        <v>201.6250895840313</v>
+        <v>226.8133468160955</v>
       </c>
       <c r="AD16" t="n">
-        <v>162908.194664877</v>
+        <v>183259.6971534599</v>
       </c>
       <c r="AE16" t="n">
-        <v>222898.1789426995</v>
+        <v>250744.0024924878</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.043138106373873e-06</v>
+        <v>6.956143130491538e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH16" t="n">
-        <v>201625.0895840313</v>
+        <v>226813.3468160955</v>
       </c>
     </row>
     <row r="17">
@@ -13971,28 +13971,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>161.5998780815127</v>
+        <v>181.9513805700957</v>
       </c>
       <c r="AB17" t="n">
-        <v>221.1080824744874</v>
+        <v>248.9539060242757</v>
       </c>
       <c r="AC17" t="n">
-        <v>200.0058374103286</v>
+        <v>225.1940946423928</v>
       </c>
       <c r="AD17" t="n">
-        <v>161599.8780815127</v>
+        <v>181951.3805700957</v>
       </c>
       <c r="AE17" t="n">
-        <v>221108.0824744874</v>
+        <v>248953.9060242757</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.056060067651346e-06</v>
+        <v>6.978375122030751e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.121527777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>200005.8374103286</v>
+        <v>225194.0946423928</v>
       </c>
     </row>
     <row r="18">
@@ -14077,28 +14077,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>161.9772673570102</v>
+        <v>182.3287698455931</v>
       </c>
       <c r="AB18" t="n">
-        <v>221.6244431304625</v>
+        <v>249.4702666802509</v>
       </c>
       <c r="AC18" t="n">
-        <v>200.4729173300144</v>
+        <v>225.6611745620785</v>
       </c>
       <c r="AD18" t="n">
-        <v>161977.2673570102</v>
+        <v>182328.7698455931</v>
       </c>
       <c r="AE18" t="n">
-        <v>221624.4431304625</v>
+        <v>249470.2666802509</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.057304404663251e-06</v>
+        <v>6.980515980475268e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.119357638888889</v>
       </c>
       <c r="AH18" t="n">
-        <v>200472.9173300144</v>
+        <v>225661.1745620786</v>
       </c>
     </row>
   </sheetData>
@@ -14374,28 +14374,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.7977667995791</v>
+        <v>147.6501932483426</v>
       </c>
       <c r="AB2" t="n">
-        <v>166.6490778733518</v>
+        <v>202.0215082690927</v>
       </c>
       <c r="AC2" t="n">
-        <v>150.7443237746151</v>
+        <v>182.7408590589156</v>
       </c>
       <c r="AD2" t="n">
-        <v>121797.7667995791</v>
+        <v>147650.1932483426</v>
       </c>
       <c r="AE2" t="n">
-        <v>166649.0778733518</v>
+        <v>202021.5082690927</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.283649693382766e-06</v>
+        <v>8.587262807585433e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.802951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>150744.3237746151</v>
+        <v>182740.8590589156</v>
       </c>
     </row>
     <row r="3">
@@ -14480,28 +14480,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.1565800572913</v>
+        <v>132.8384143054625</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.6163602489915</v>
+        <v>181.7553788698856</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.6235006042215</v>
+        <v>164.4089006058711</v>
       </c>
       <c r="AD3" t="n">
-        <v>107156.5800572913</v>
+        <v>132838.4143054626</v>
       </c>
       <c r="AE3" t="n">
-        <v>146616.3602489915</v>
+        <v>181755.3788698856</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.704053340253062e-06</v>
+        <v>9.430029340647033e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.284288194444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>132623.5006042215</v>
+        <v>164408.9006058711</v>
       </c>
     </row>
     <row r="4">
@@ -14586,28 +14586,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.6970617519337</v>
+        <v>133.378896000105</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.3558711479705</v>
+        <v>182.4948897688645</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.2924336209123</v>
+        <v>165.0778336225618</v>
       </c>
       <c r="AD4" t="n">
-        <v>107697.0617519337</v>
+        <v>133378.896000105</v>
       </c>
       <c r="AE4" t="n">
-        <v>147355.8711479705</v>
+        <v>182494.8897688646</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.701304106595056e-06</v>
+        <v>9.424518060866795e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.288628472222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>133292.4336209123</v>
+        <v>165077.8336225618</v>
       </c>
     </row>
   </sheetData>
@@ -14883,28 +14883,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>321.6229749823912</v>
+        <v>360.7947306136304</v>
       </c>
       <c r="AB2" t="n">
-        <v>440.0587433751552</v>
+        <v>493.6552675657094</v>
       </c>
       <c r="AC2" t="n">
-        <v>398.0601545337549</v>
+        <v>446.5415016787569</v>
       </c>
       <c r="AD2" t="n">
-        <v>321622.9749823912</v>
+        <v>360794.7306136304</v>
       </c>
       <c r="AE2" t="n">
-        <v>440058.7433751553</v>
+        <v>493655.2675657094</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.608941770570773e-06</v>
+        <v>4.620629738055755e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.276909722222221</v>
       </c>
       <c r="AH2" t="n">
-        <v>398060.1545337549</v>
+        <v>446541.5016787569</v>
       </c>
     </row>
     <row r="3">
@@ -14989,28 +14989,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>209.5886150458294</v>
+        <v>238.9461189327533</v>
       </c>
       <c r="AB3" t="n">
-        <v>286.768389502689</v>
+        <v>326.9366214824217</v>
       </c>
       <c r="AC3" t="n">
-        <v>259.3996168905992</v>
+        <v>295.7342491866667</v>
       </c>
       <c r="AD3" t="n">
-        <v>209588.6150458294</v>
+        <v>238946.1189327533</v>
       </c>
       <c r="AE3" t="n">
-        <v>286768.389502689</v>
+        <v>326936.6214824217</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.469135258186204e-06</v>
+        <v>6.14409632293404e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>259399.6168905993</v>
+        <v>295734.2491866667</v>
       </c>
     </row>
     <row r="4">
@@ -15095,28 +15095,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.6554506601142</v>
+        <v>209.0982058930587</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.8125134321616</v>
+        <v>286.0973900645435</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.3525121502969</v>
+        <v>258.7926566970766</v>
       </c>
       <c r="AD4" t="n">
-        <v>179655.4506601142</v>
+        <v>209098.2058930587</v>
       </c>
       <c r="AE4" t="n">
-        <v>245812.5134321616</v>
+        <v>286097.3900645435</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.771357333832672e-06</v>
+        <v>6.679354076089446e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.726996527777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>222352.5121502969</v>
+        <v>258792.6566970766</v>
       </c>
     </row>
     <row r="5">
@@ -15201,28 +15201,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.1090770971993</v>
+        <v>199.3812401295515</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.7507439671101</v>
+        <v>272.8022088246452</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.5373396306771</v>
+        <v>246.7663488948058</v>
       </c>
       <c r="AD5" t="n">
-        <v>170109.0770971993</v>
+        <v>199381.2401295515</v>
       </c>
       <c r="AE5" t="n">
-        <v>232750.7439671101</v>
+        <v>272802.2088246451</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.92848892996233e-06</v>
+        <v>6.957645808796852e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.496961805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>210537.3396306771</v>
+        <v>246766.3488948058</v>
       </c>
     </row>
     <row r="6">
@@ -15307,28 +15307,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>163.6574199324877</v>
+        <v>192.92958296484</v>
       </c>
       <c r="AB6" t="n">
-        <v>223.9233020073301</v>
+        <v>263.9747668648651</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.5523763421431</v>
+        <v>238.7813856062717</v>
       </c>
       <c r="AD6" t="n">
-        <v>163657.4199324877</v>
+        <v>192929.58296484</v>
       </c>
       <c r="AE6" t="n">
-        <v>223923.3020073301</v>
+        <v>263974.7668648651</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.031286231293513e-06</v>
+        <v>7.139707468003154e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.355902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>202552.3763421431</v>
+        <v>238781.3856062717</v>
       </c>
     </row>
     <row r="7">
@@ -15413,28 +15413,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.1265797968408</v>
+        <v>178.7551727940214</v>
       </c>
       <c r="AB7" t="n">
-        <v>217.7240066471815</v>
+        <v>244.5807135383178</v>
       </c>
       <c r="AC7" t="n">
-        <v>196.9447330303994</v>
+        <v>221.2382735094791</v>
       </c>
       <c r="AD7" t="n">
-        <v>159126.5797968408</v>
+        <v>178755.1727940214</v>
       </c>
       <c r="AE7" t="n">
-        <v>217724.0066471815</v>
+        <v>244580.7135383178</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.09666650910047e-06</v>
+        <v>7.25550079820503e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.271267361111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>196944.7330303994</v>
+        <v>221238.2735094791</v>
       </c>
     </row>
     <row r="8">
@@ -15519,28 +15519,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>155.725180487618</v>
+        <v>175.3537734847987</v>
       </c>
       <c r="AB8" t="n">
-        <v>213.0700620531584</v>
+        <v>239.9267689442947</v>
       </c>
       <c r="AC8" t="n">
-        <v>192.7349543765762</v>
+        <v>217.0284948556559</v>
       </c>
       <c r="AD8" t="n">
-        <v>155725.1804876181</v>
+        <v>175353.7734847987</v>
       </c>
       <c r="AE8" t="n">
-        <v>213070.0620531584</v>
+        <v>239926.7689442947</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.142343141540946e-06</v>
+        <v>7.336397508346069e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.212673611111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>192734.9543765762</v>
+        <v>217028.4948556559</v>
       </c>
     </row>
     <row r="9">
@@ -15625,28 +15625,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.6110738401088</v>
+        <v>172.2396668372895</v>
       </c>
       <c r="AB9" t="n">
-        <v>208.8092039533493</v>
+        <v>235.6659108444856</v>
       </c>
       <c r="AC9" t="n">
-        <v>188.8807465936596</v>
+        <v>213.1742870727393</v>
       </c>
       <c r="AD9" t="n">
-        <v>152611.0738401088</v>
+        <v>172239.6668372895</v>
       </c>
       <c r="AE9" t="n">
-        <v>208809.2039533493</v>
+        <v>235665.9108444856</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.176078170729012e-06</v>
+        <v>7.396144751783568e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.171440972222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>188880.7465936596</v>
+        <v>213174.2870727393</v>
       </c>
     </row>
     <row r="10">
@@ -15731,28 +15731,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.382746913676</v>
+        <v>169.0113399108567</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.3920646288738</v>
+        <v>231.2487715200101</v>
       </c>
       <c r="AC10" t="n">
-        <v>184.8851728468167</v>
+        <v>209.1787133258964</v>
       </c>
       <c r="AD10" t="n">
-        <v>149382.746913676</v>
+        <v>169011.3399108567</v>
       </c>
       <c r="AE10" t="n">
-        <v>204392.0646288738</v>
+        <v>231248.7715200101</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.207126339185282e-06</v>
+        <v>7.451133365212767e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.132378472222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>184885.1728468167</v>
+        <v>209178.7133258964</v>
       </c>
     </row>
     <row r="11">
@@ -15837,28 +15837,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>148.0450292438734</v>
+        <v>167.673622241054</v>
       </c>
       <c r="AB11" t="n">
-        <v>202.5617402971123</v>
+        <v>229.4184471882487</v>
       </c>
       <c r="AC11" t="n">
-        <v>183.2295321004016</v>
+        <v>207.5230725794813</v>
       </c>
       <c r="AD11" t="n">
-        <v>148045.0292438733</v>
+        <v>167673.622241054</v>
       </c>
       <c r="AE11" t="n">
-        <v>202561.7402971123</v>
+        <v>229418.4471882487</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.219067942437696e-06</v>
+        <v>7.472282831916309e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.119357638888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>183229.5321004016</v>
+        <v>207523.0725794813</v>
       </c>
     </row>
     <row r="12">
@@ -15943,28 +15943,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>147.0278108928455</v>
+        <v>166.6564038900261</v>
       </c>
       <c r="AB12" t="n">
-        <v>201.1699372727302</v>
+        <v>228.0266441638666</v>
       </c>
       <c r="AC12" t="n">
-        <v>181.9705608032583</v>
+        <v>206.264101282338</v>
       </c>
       <c r="AD12" t="n">
-        <v>147027.8108928454</v>
+        <v>166656.4038900261</v>
       </c>
       <c r="AE12" t="n">
-        <v>201169.9372727302</v>
+        <v>228026.6441638666</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.230412465527487e-06</v>
+        <v>7.492374825284672e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>181970.5608032583</v>
+        <v>206264.101282338</v>
       </c>
     </row>
   </sheetData>
@@ -16240,28 +16240,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.6450047096488</v>
+        <v>422.5706223242054</v>
       </c>
       <c r="AB2" t="n">
-        <v>509.8693353810777</v>
+        <v>578.1797679641141</v>
       </c>
       <c r="AC2" t="n">
-        <v>461.2081216184135</v>
+        <v>522.9991023900192</v>
       </c>
       <c r="AD2" t="n">
-        <v>372645.0047096488</v>
+        <v>422570.6223242054</v>
       </c>
       <c r="AE2" t="n">
-        <v>509869.3353810777</v>
+        <v>578179.7679641142</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.365916779898886e-06</v>
+        <v>4.125952274172859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.943142361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>461208.1216184135</v>
+        <v>522999.1023900192</v>
       </c>
     </row>
     <row r="3">
@@ -16346,28 +16346,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.4782551647147</v>
+        <v>260.3995789001739</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.3505166992134</v>
+        <v>356.2901918698565</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.2539059827639</v>
+        <v>322.2863560142216</v>
       </c>
       <c r="AD3" t="n">
-        <v>230478.2551647147</v>
+        <v>260399.5789001739</v>
       </c>
       <c r="AE3" t="n">
-        <v>315350.5166992134</v>
+        <v>356290.1918698565</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.272794668620894e-06</v>
+        <v>5.707468124248348e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.46484375</v>
       </c>
       <c r="AH3" t="n">
-        <v>285253.9059827639</v>
+        <v>322286.3560142216</v>
       </c>
     </row>
     <row r="4">
@@ -16452,28 +16452,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.4730872642983</v>
+        <v>225.4796623457748</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.4549016588724</v>
+        <v>308.5112214819918</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.9293812199399</v>
+        <v>279.0673435020606</v>
       </c>
       <c r="AD4" t="n">
-        <v>195473.0872642983</v>
+        <v>225479.6623457749</v>
       </c>
       <c r="AE4" t="n">
-        <v>267454.9016588724</v>
+        <v>308511.2214819918</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.600503149858898e-06</v>
+        <v>6.278963100283584e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.876736111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>241929.3812199399</v>
+        <v>279067.3435020606</v>
       </c>
     </row>
     <row r="5">
@@ -16558,28 +16558,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.9521310970483</v>
+        <v>213.9587061785248</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.6914211621345</v>
+        <v>292.7477409852538</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.6703451776218</v>
+        <v>264.8083074597425</v>
       </c>
       <c r="AD5" t="n">
-        <v>183952.1310970483</v>
+        <v>213958.7061785248</v>
       </c>
       <c r="AE5" t="n">
-        <v>251691.4211621345</v>
+        <v>292747.7409852538</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.774058965569593e-06</v>
+        <v>6.581629288127297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.607638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>227670.3451776218</v>
+        <v>264808.3074597425</v>
       </c>
     </row>
     <row r="6">
@@ -16664,28 +16664,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.4208741744593</v>
+        <v>207.2568570553436</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.7550673019332</v>
+        <v>283.5779753502056</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.5868643875838</v>
+        <v>256.5136913870535</v>
       </c>
       <c r="AD6" t="n">
-        <v>177420.8741744593</v>
+        <v>207256.8570553436</v>
       </c>
       <c r="AE6" t="n">
-        <v>242755.0673019332</v>
+        <v>283577.9753502056</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.874389827573135e-06</v>
+        <v>6.756597550650432e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.462239583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>219586.8643875838</v>
+        <v>256513.6913870535</v>
       </c>
     </row>
     <row r="7">
@@ -16770,28 +16770,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>172.2095827742285</v>
+        <v>202.0455656551128</v>
       </c>
       <c r="AB7" t="n">
-        <v>235.6247485021903</v>
+        <v>276.4476565504627</v>
       </c>
       <c r="AC7" t="n">
-        <v>213.1370532066209</v>
+        <v>250.0638802060905</v>
       </c>
       <c r="AD7" t="n">
-        <v>172209.5827742285</v>
+        <v>202045.5656551128</v>
       </c>
       <c r="AE7" t="n">
-        <v>235624.7485021903</v>
+        <v>276447.6565504628</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.950929892366897e-06</v>
+        <v>6.890076740233193e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.355902777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>213137.0532066209</v>
+        <v>250063.8802060905</v>
       </c>
     </row>
     <row r="8">
@@ -16876,28 +16876,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>169.2001395913924</v>
+        <v>199.0361224722767</v>
       </c>
       <c r="AB8" t="n">
-        <v>231.5070955721731</v>
+        <v>272.3300036204455</v>
       </c>
       <c r="AC8" t="n">
-        <v>209.412383293081</v>
+        <v>246.3392102925506</v>
       </c>
       <c r="AD8" t="n">
-        <v>169200.1395913924</v>
+        <v>199036.1224722767</v>
       </c>
       <c r="AE8" t="n">
-        <v>231507.0955721731</v>
+        <v>272330.0036204455</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.994806362630837e-06</v>
+        <v>6.966593473115029e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.297309027777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>209412.383293081</v>
+        <v>246339.2102925506</v>
       </c>
     </row>
     <row r="9">
@@ -16982,28 +16982,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.5979714229161</v>
+        <v>185.6024443191182</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.5784501676225</v>
+        <v>253.9494525192504</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.9541208885419</v>
+        <v>229.7128731911822</v>
       </c>
       <c r="AD9" t="n">
-        <v>165597.9714229161</v>
+        <v>185602.4443191182</v>
       </c>
       <c r="AE9" t="n">
-        <v>226578.4501676225</v>
+        <v>253949.4525192504</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.037122780618725e-06</v>
+        <v>7.040389611049958e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.240885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>204954.1208885419</v>
+        <v>229712.8731911822</v>
       </c>
     </row>
     <row r="10">
@@ -17088,28 +17088,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>161.9614570136773</v>
+        <v>181.9659299098793</v>
       </c>
       <c r="AB10" t="n">
-        <v>221.6028107212113</v>
+        <v>248.9738130728393</v>
       </c>
       <c r="AC10" t="n">
-        <v>200.4533494875408</v>
+        <v>225.2121017901812</v>
       </c>
       <c r="AD10" t="n">
-        <v>161961.4570136773</v>
+        <v>181965.9299098793</v>
       </c>
       <c r="AE10" t="n">
-        <v>221602.8107212113</v>
+        <v>248973.8130728393</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.073393996036916e-06</v>
+        <v>7.10364344356561e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.1953125</v>
       </c>
       <c r="AH10" t="n">
-        <v>200453.3494875408</v>
+        <v>225212.1017901812</v>
       </c>
     </row>
     <row r="11">
@@ -17194,28 +17194,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>159.6476370272503</v>
+        <v>179.6521099234523</v>
       </c>
       <c r="AB11" t="n">
-        <v>218.43694013725</v>
+        <v>245.8079424888779</v>
       </c>
       <c r="AC11" t="n">
-        <v>197.5896251487844</v>
+        <v>222.3483774514248</v>
       </c>
       <c r="AD11" t="n">
-        <v>159647.6370272503</v>
+        <v>179652.1099234523</v>
       </c>
       <c r="AE11" t="n">
-        <v>218436.94013725</v>
+        <v>245807.9424888779</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.098452335720988e-06</v>
+        <v>7.147342999900348e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>197589.6251487845</v>
+        <v>222348.3774514248</v>
       </c>
     </row>
     <row r="12">
@@ -17300,28 +17300,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>157.6647914930668</v>
+        <v>177.6692643892688</v>
       </c>
       <c r="AB12" t="n">
-        <v>215.7239234004104</v>
+        <v>243.0949257520384</v>
       </c>
       <c r="AC12" t="n">
-        <v>195.1355349215651</v>
+        <v>219.8942872242054</v>
       </c>
       <c r="AD12" t="n">
-        <v>157664.7914930668</v>
+        <v>177669.2643892689</v>
       </c>
       <c r="AE12" t="n">
-        <v>215723.9234004104</v>
+        <v>243094.9257520384</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.109860217989612e-06</v>
+        <v>7.167237350449624e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH12" t="n">
-        <v>195135.5349215651</v>
+        <v>219894.2872242054</v>
       </c>
     </row>
     <row r="13">
@@ -17406,28 +17406,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>154.8368653892666</v>
+        <v>174.8413382854686</v>
       </c>
       <c r="AB13" t="n">
-        <v>211.8546301458983</v>
+        <v>239.2256324975262</v>
       </c>
       <c r="AC13" t="n">
-        <v>191.6355215846752</v>
+        <v>216.3942738873155</v>
       </c>
       <c r="AD13" t="n">
-        <v>154836.8653892666</v>
+        <v>174841.3382854686</v>
       </c>
       <c r="AE13" t="n">
-        <v>211854.6301458983</v>
+        <v>239225.6324975262</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.135308570742697e-06</v>
+        <v>7.211617055521091e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH13" t="n">
-        <v>191635.5215846752</v>
+        <v>216394.2738873155</v>
       </c>
     </row>
     <row r="14">
@@ -17512,28 +17512,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>154.4754404795992</v>
+        <v>174.4799133758012</v>
       </c>
       <c r="AB14" t="n">
-        <v>211.3601126395499</v>
+        <v>238.7311149911779</v>
       </c>
       <c r="AC14" t="n">
-        <v>191.1882001350729</v>
+        <v>215.9469524377132</v>
       </c>
       <c r="AD14" t="n">
-        <v>154475.4404795992</v>
+        <v>174479.9133758012</v>
       </c>
       <c r="AE14" t="n">
-        <v>211360.1126395499</v>
+        <v>238731.1149911779</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.132090962923341e-06</v>
+        <v>7.20600582844309e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.121527777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>191188.2001350729</v>
+        <v>215946.9524377132</v>
       </c>
     </row>
     <row r="15">
@@ -17618,28 +17618,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>154.1001513244954</v>
+        <v>174.1046242206974</v>
       </c>
       <c r="AB15" t="n">
-        <v>210.8466254609482</v>
+        <v>238.2176278125761</v>
       </c>
       <c r="AC15" t="n">
-        <v>190.7237194521129</v>
+        <v>215.4824717547532</v>
       </c>
       <c r="AD15" t="n">
-        <v>154100.1513244954</v>
+        <v>174104.6242206974</v>
       </c>
       <c r="AE15" t="n">
-        <v>210846.6254609482</v>
+        <v>238217.6278125761</v>
       </c>
       <c r="AF15" t="n">
-        <v>4.145643917071536e-06</v>
+        <v>7.229640997044369e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>190723.7194521129</v>
+        <v>215482.4717547532</v>
       </c>
     </row>
   </sheetData>
@@ -17915,28 +17915,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>525.1554985647059</v>
+        <v>576.9279660385245</v>
       </c>
       <c r="AB2" t="n">
-        <v>718.5409213616969</v>
+        <v>789.3782953994407</v>
       </c>
       <c r="AC2" t="n">
-        <v>649.9643843054528</v>
+        <v>714.0411387859133</v>
       </c>
       <c r="AD2" t="n">
-        <v>525155.498564706</v>
+        <v>576927.9660385244</v>
       </c>
       <c r="AE2" t="n">
-        <v>718540.9213616969</v>
+        <v>789378.2953994407</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.939562555164192e-06</v>
+        <v>3.297127796596584e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.52951388888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>649964.3843054528</v>
+        <v>714041.1387859132</v>
       </c>
     </row>
     <row r="3">
@@ -18021,28 +18021,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.3549824229651</v>
+        <v>316.6193428637909</v>
       </c>
       <c r="AB3" t="n">
-        <v>376.7528347555775</v>
+        <v>433.2125531658166</v>
       </c>
       <c r="AC3" t="n">
-        <v>340.7960729824289</v>
+        <v>391.8673551093074</v>
       </c>
       <c r="AD3" t="n">
-        <v>275354.9824229651</v>
+        <v>316619.3428637909</v>
       </c>
       <c r="AE3" t="n">
-        <v>376752.8347555774</v>
+        <v>433212.5531658166</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.925389997803083e-06</v>
+        <v>4.972969112009714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.981336805555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>340796.0729824289</v>
+        <v>391867.3551093074</v>
       </c>
     </row>
     <row r="4">
@@ -18127,28 +18127,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.0541143450691</v>
+        <v>268.9811389705995</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.7161414530878</v>
+        <v>368.0318609499234</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.6302500583775</v>
+        <v>332.9074166768229</v>
       </c>
       <c r="AD4" t="n">
-        <v>238054.1143450691</v>
+        <v>268981.1389705995</v>
       </c>
       <c r="AE4" t="n">
-        <v>325716.1414530878</v>
+        <v>368031.8609499234</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.3001455946134e-06</v>
+        <v>5.610028789143375e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>294630.2500583775</v>
+        <v>332907.4166768229</v>
       </c>
     </row>
     <row r="5">
@@ -18233,28 +18233,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>212.0484904392682</v>
+        <v>243.0607664108159</v>
       </c>
       <c r="AB5" t="n">
-        <v>290.1340995380335</v>
+        <v>332.5664636873394</v>
       </c>
       <c r="AC5" t="n">
-        <v>262.4441082839753</v>
+        <v>300.826787153082</v>
       </c>
       <c r="AD5" t="n">
-        <v>212048.4904392682</v>
+        <v>243060.7664108159</v>
       </c>
       <c r="AE5" t="n">
-        <v>290134.0995380335</v>
+        <v>332566.4636873394</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.494487710990422e-06</v>
+        <v>5.940397506692597e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.844184027777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>262444.1082839753</v>
+        <v>300826.787153082</v>
       </c>
     </row>
     <row r="6">
@@ -18339,28 +18339,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>203.2716093739305</v>
+        <v>234.2838853454781</v>
       </c>
       <c r="AB6" t="n">
-        <v>278.1251836557797</v>
+        <v>320.5575478050856</v>
       </c>
       <c r="AC6" t="n">
-        <v>251.5813064789006</v>
+        <v>289.9639853480073</v>
       </c>
       <c r="AD6" t="n">
-        <v>203271.6093739305</v>
+        <v>234283.8853454781</v>
       </c>
       <c r="AE6" t="n">
-        <v>278125.1836557797</v>
+        <v>320557.5478050855</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.614198690182467e-06</v>
+        <v>6.143898237308875e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>251581.3064789006</v>
+        <v>289963.9853480073</v>
       </c>
     </row>
     <row r="7">
@@ -18445,28 +18445,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>197.738256485526</v>
+        <v>228.7505324570737</v>
       </c>
       <c r="AB7" t="n">
-        <v>270.5542061195679</v>
+        <v>312.9865702688737</v>
       </c>
       <c r="AC7" t="n">
-        <v>244.7328924128087</v>
+        <v>283.1155712819154</v>
       </c>
       <c r="AD7" t="n">
-        <v>197738.256485526</v>
+        <v>228750.5324570737</v>
       </c>
       <c r="AE7" t="n">
-        <v>270554.2061195679</v>
+        <v>312986.5702688737</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.687888703317192e-06</v>
+        <v>6.269166375730687e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.538194444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>244732.8924128087</v>
+        <v>283115.5712819154</v>
       </c>
     </row>
     <row r="8">
@@ -18551,28 +18551,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>192.9138598419007</v>
+        <v>223.7555436128561</v>
       </c>
       <c r="AB8" t="n">
-        <v>263.9532537944043</v>
+        <v>306.1522061688634</v>
       </c>
       <c r="AC8" t="n">
-        <v>238.7619257130619</v>
+        <v>276.9334692995176</v>
       </c>
       <c r="AD8" t="n">
-        <v>192913.8598419007</v>
+        <v>223755.5436128561</v>
       </c>
       <c r="AE8" t="n">
-        <v>263953.2537944043</v>
+        <v>306152.2061688633</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.754237948859954e-06</v>
+        <v>6.381955695765652e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.440538194444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>238761.9257130619</v>
+        <v>276933.4692995176</v>
       </c>
     </row>
     <row r="9">
@@ -18657,28 +18657,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>189.4573636680057</v>
+        <v>220.2990474389611</v>
       </c>
       <c r="AB9" t="n">
-        <v>259.2239232394346</v>
+        <v>301.4228756138935</v>
       </c>
       <c r="AC9" t="n">
-        <v>234.4839558285998</v>
+        <v>272.6554994150555</v>
       </c>
       <c r="AD9" t="n">
-        <v>189457.3636680057</v>
+        <v>220299.0474389611</v>
       </c>
       <c r="AE9" t="n">
-        <v>259223.9232394345</v>
+        <v>301422.8756138935</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.800070690107222e-06</v>
+        <v>6.45986831825789e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.375434027777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>234483.9558285998</v>
+        <v>272655.4994150555</v>
       </c>
     </row>
     <row r="10">
@@ -18763,28 +18763,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>186.5178491675095</v>
+        <v>217.359532938465</v>
       </c>
       <c r="AB10" t="n">
-        <v>255.2019498176304</v>
+        <v>297.4009021920895</v>
       </c>
       <c r="AC10" t="n">
-        <v>230.8458339052963</v>
+        <v>269.017377491752</v>
       </c>
       <c r="AD10" t="n">
-        <v>186517.8491675095</v>
+        <v>217359.532938465</v>
       </c>
       <c r="AE10" t="n">
-        <v>255201.9498176304</v>
+        <v>297400.9021920895</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.83536284199167e-06</v>
+        <v>6.519862637425425e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.325520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>230845.8339052963</v>
+        <v>269017.377491752</v>
       </c>
     </row>
     <row r="11">
@@ -18869,28 +18869,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>184.3289829678291</v>
+        <v>215.1706667387846</v>
       </c>
       <c r="AB11" t="n">
-        <v>252.2070465172678</v>
+        <v>294.4059988917268</v>
       </c>
       <c r="AC11" t="n">
-        <v>228.1367599725461</v>
+        <v>266.3083035590018</v>
       </c>
       <c r="AD11" t="n">
-        <v>184328.9829678291</v>
+        <v>215170.6667387846</v>
       </c>
       <c r="AE11" t="n">
-        <v>252207.0465172678</v>
+        <v>294405.9988917268</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.857102807552489e-06</v>
+        <v>6.556819138032625e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.295138888888889</v>
       </c>
       <c r="AH11" t="n">
-        <v>228136.7599725461</v>
+        <v>266308.3035590018</v>
       </c>
     </row>
     <row r="12">
@@ -18975,28 +18975,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>182.0459187048251</v>
+        <v>202.7208588610746</v>
       </c>
       <c r="AB12" t="n">
-        <v>249.0832572709406</v>
+        <v>277.3716225066929</v>
       </c>
       <c r="AC12" t="n">
-        <v>225.3111007876216</v>
+        <v>250.8996641482527</v>
       </c>
       <c r="AD12" t="n">
-        <v>182045.9187048251</v>
+        <v>202720.8588610746</v>
       </c>
       <c r="AE12" t="n">
-        <v>249083.2572709406</v>
+        <v>277371.6225066929</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.884960079439946e-06</v>
+        <v>6.604174653962199e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.256076388888889</v>
       </c>
       <c r="AH12" t="n">
-        <v>225311.1007876216</v>
+        <v>250899.6641482527</v>
       </c>
     </row>
     <row r="13">
@@ -19081,28 +19081,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>179.4267107505986</v>
+        <v>200.1016509068481</v>
       </c>
       <c r="AB13" t="n">
-        <v>245.49954139667</v>
+        <v>273.7879066324222</v>
       </c>
       <c r="AC13" t="n">
-        <v>222.0694097266134</v>
+        <v>247.6579730872445</v>
       </c>
       <c r="AD13" t="n">
-        <v>179426.7107505986</v>
+        <v>200101.6509068481</v>
       </c>
       <c r="AE13" t="n">
-        <v>245499.54139667</v>
+        <v>273787.9066324222</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.907641169051017e-06</v>
+        <v>6.642731003080535e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.225694444444445</v>
       </c>
       <c r="AH13" t="n">
-        <v>222069.4097266134</v>
+        <v>247657.9730872445</v>
       </c>
     </row>
     <row r="14">
@@ -19187,28 +19187,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>178.3688472224517</v>
+        <v>199.0437873787012</v>
       </c>
       <c r="AB14" t="n">
-        <v>244.052125847815</v>
+        <v>272.3404910835674</v>
       </c>
       <c r="AC14" t="n">
-        <v>220.7601334862803</v>
+        <v>246.3486968469113</v>
       </c>
       <c r="AD14" t="n">
-        <v>178368.8472224517</v>
+        <v>199043.7873787012</v>
       </c>
       <c r="AE14" t="n">
-        <v>244052.125847815</v>
+        <v>272340.4910835674</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.917052409553536e-06</v>
+        <v>6.658729488191877e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.21484375</v>
       </c>
       <c r="AH14" t="n">
-        <v>220760.1334862803</v>
+        <v>246348.6968469113</v>
       </c>
     </row>
     <row r="15">
@@ -19293,28 +19293,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>175.8683620253578</v>
+        <v>196.5433021816073</v>
       </c>
       <c r="AB15" t="n">
-        <v>240.6308516875315</v>
+        <v>268.9192169232838</v>
       </c>
       <c r="AC15" t="n">
-        <v>217.6653809300647</v>
+        <v>243.2539442906957</v>
       </c>
       <c r="AD15" t="n">
-        <v>175868.3620253578</v>
+        <v>196543.3021816073</v>
       </c>
       <c r="AE15" t="n">
-        <v>240630.8516875315</v>
+        <v>268919.2169232838</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.933145630812844e-06</v>
+        <v>6.686086897732272e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.193142361111111</v>
       </c>
       <c r="AH15" t="n">
-        <v>217665.3809300647</v>
+        <v>243253.9442906957</v>
       </c>
     </row>
     <row r="16">
@@ -19399,28 +19399,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>174.6524114437623</v>
+        <v>195.3273516000118</v>
       </c>
       <c r="AB16" t="n">
-        <v>238.9671344578396</v>
+        <v>267.255499693592</v>
       </c>
       <c r="AC16" t="n">
-        <v>216.1604465377323</v>
+        <v>241.7490098983633</v>
       </c>
       <c r="AD16" t="n">
-        <v>174652.4114437623</v>
+        <v>195327.3516000118</v>
       </c>
       <c r="AE16" t="n">
-        <v>238967.1344578397</v>
+        <v>267255.499693592</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.940392285999784e-06</v>
+        <v>6.698405731268007e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.182291666666667</v>
       </c>
       <c r="AH16" t="n">
-        <v>216160.4465377323</v>
+        <v>241749.0098983634</v>
       </c>
     </row>
     <row r="17">
@@ -19505,28 +19505,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>172.8490935891823</v>
+        <v>193.5240337454318</v>
       </c>
       <c r="AB17" t="n">
-        <v>236.4997554124357</v>
+        <v>264.7881206481879</v>
       </c>
       <c r="AC17" t="n">
-        <v>213.9285506854326</v>
+        <v>239.5171140460636</v>
       </c>
       <c r="AD17" t="n">
-        <v>172849.0935891823</v>
+        <v>193524.0337454317</v>
       </c>
       <c r="AE17" t="n">
-        <v>236499.7554124357</v>
+        <v>264788.1206481879</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.956579619664117e-06</v>
+        <v>6.725923125659517e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.162760416666667</v>
       </c>
       <c r="AH17" t="n">
-        <v>213928.5506854326</v>
+        <v>239517.1140460636</v>
       </c>
     </row>
     <row r="18">
@@ -19611,28 +19611,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>170.8439954753854</v>
+        <v>191.5189356316348</v>
       </c>
       <c r="AB18" t="n">
-        <v>233.7562917144544</v>
+        <v>262.0446569502067</v>
       </c>
       <c r="AC18" t="n">
-        <v>211.4469193123103</v>
+        <v>237.0354826729414</v>
       </c>
       <c r="AD18" t="n">
-        <v>170843.9954753854</v>
+        <v>191518.9356316348</v>
       </c>
       <c r="AE18" t="n">
-        <v>233756.2917144544</v>
+        <v>262044.6569502067</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.966743759406838e-06</v>
+        <v>6.743201489579766e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH18" t="n">
-        <v>211446.9193123103</v>
+        <v>237035.4826729414</v>
       </c>
     </row>
     <row r="19">
@@ -19717,28 +19717,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>170.169775629845</v>
+        <v>190.8447157860945</v>
       </c>
       <c r="AB19" t="n">
-        <v>232.8337943773062</v>
+        <v>261.1221596130585</v>
       </c>
       <c r="AC19" t="n">
-        <v>210.6124638262861</v>
+        <v>236.2010271869172</v>
       </c>
       <c r="AD19" t="n">
-        <v>170169.775629845</v>
+        <v>190844.7157860945</v>
       </c>
       <c r="AE19" t="n">
-        <v>232833.7943773062</v>
+        <v>261122.1596130585</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.966367309786737e-06</v>
+        <v>6.742561550175313e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.149739583333333</v>
       </c>
       <c r="AH19" t="n">
-        <v>210612.4638262861</v>
+        <v>236201.0271869172</v>
       </c>
     </row>
     <row r="20">
@@ -19823,28 +19823,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>169.4441666841104</v>
+        <v>190.1191068403598</v>
       </c>
       <c r="AB20" t="n">
-        <v>231.8409842061452</v>
+        <v>260.1293494418975</v>
       </c>
       <c r="AC20" t="n">
-        <v>209.7144060644426</v>
+        <v>235.3029694250737</v>
       </c>
       <c r="AD20" t="n">
-        <v>169444.1666841104</v>
+        <v>190119.1068403599</v>
       </c>
       <c r="AE20" t="n">
-        <v>231840.9842061452</v>
+        <v>260129.3494418975</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.978413697629962e-06</v>
+        <v>6.76303961111783e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.134548611111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>209714.4060644426</v>
+        <v>235302.9694250737</v>
       </c>
     </row>
     <row r="21">
@@ -19929,28 +19929,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>169.7592117365539</v>
+        <v>190.4341518928034</v>
       </c>
       <c r="AB21" t="n">
-        <v>232.272042745705</v>
+        <v>260.5604079814573</v>
       </c>
       <c r="AC21" t="n">
-        <v>210.1043249819814</v>
+        <v>235.6928883426125</v>
       </c>
       <c r="AD21" t="n">
-        <v>169759.2117365539</v>
+        <v>190434.1518928034</v>
       </c>
       <c r="AE21" t="n">
-        <v>232272.042745705</v>
+        <v>260560.4079814572</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.978790147250062e-06</v>
+        <v>6.763679550522283e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>6</v>
+        <v>5.132378472222222</v>
       </c>
       <c r="AH21" t="n">
-        <v>210104.3249819814</v>
+        <v>235692.8883426125</v>
       </c>
     </row>
   </sheetData>
@@ -20226,28 +20226,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.6909894542153</v>
+        <v>305.1235748988312</v>
       </c>
       <c r="AB2" t="n">
-        <v>364.8983773473404</v>
+        <v>417.4835362786695</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.0729883513986</v>
+        <v>377.6394935180558</v>
       </c>
       <c r="AD2" t="n">
-        <v>266690.9894542153</v>
+        <v>305123.5748988312</v>
       </c>
       <c r="AE2" t="n">
-        <v>364898.3773473405</v>
+        <v>417483.5362786695</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.885036247791281e-06</v>
+        <v>5.202403069579374e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.658420138888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>330072.9883513986</v>
+        <v>377639.4935180558</v>
       </c>
     </row>
     <row r="3">
@@ -20332,28 +20332,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.6177554439899</v>
+        <v>217.8796591794621</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.7609371744647</v>
+        <v>298.1125618613716</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.3058582582468</v>
+        <v>269.6611173610187</v>
       </c>
       <c r="AD3" t="n">
-        <v>179617.7554439899</v>
+        <v>217879.6591794621</v>
       </c>
       <c r="AE3" t="n">
-        <v>245760.9371744648</v>
+        <v>298112.5618613716</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.686016631803633e-06</v>
+        <v>6.646760245905635e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.993923611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>222305.8582582468</v>
+        <v>269661.1173610187</v>
       </c>
     </row>
     <row r="4">
@@ -20438,28 +20438,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>163.0168786820977</v>
+        <v>191.8413177655593</v>
       </c>
       <c r="AB4" t="n">
-        <v>223.0468852098613</v>
+        <v>262.4857544083379</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.7596035337658</v>
+        <v>237.4344824087528</v>
       </c>
       <c r="AD4" t="n">
-        <v>163016.8786820977</v>
+        <v>191841.3177655593</v>
       </c>
       <c r="AE4" t="n">
-        <v>223046.8852098613</v>
+        <v>262485.7544083379</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.97160834111527e-06</v>
+        <v>7.161749680200177e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.564236111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>201759.6035337658</v>
+        <v>237434.4824087528</v>
       </c>
     </row>
     <row r="5">
@@ -20544,28 +20544,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.451071019032</v>
+        <v>184.1049179019014</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.6950133853829</v>
+        <v>251.9004708090126</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.3956998272689</v>
+        <v>227.859443419605</v>
       </c>
       <c r="AD5" t="n">
-        <v>155451.071019032</v>
+        <v>184104.9179019014</v>
       </c>
       <c r="AE5" t="n">
-        <v>212695.0133853829</v>
+        <v>251900.4708090126</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.10895708117281e-06</v>
+        <v>7.409421960721867e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.377604166666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>192395.699827269</v>
+        <v>227859.443419605</v>
       </c>
     </row>
     <row r="6">
@@ -20650,28 +20650,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>150.3261117555972</v>
+        <v>169.542493986456</v>
       </c>
       <c r="AB6" t="n">
-        <v>205.6828180239094</v>
+        <v>231.9755199591088</v>
       </c>
       <c r="AC6" t="n">
-        <v>186.0527385494142</v>
+        <v>209.8361019139655</v>
       </c>
       <c r="AD6" t="n">
-        <v>150326.1117555972</v>
+        <v>169542.493986456</v>
       </c>
       <c r="AE6" t="n">
-        <v>205682.8180239093</v>
+        <v>231975.5199591088</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.18949292504643e-06</v>
+        <v>7.554647145223464e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.2734375</v>
       </c>
       <c r="AH6" t="n">
-        <v>186052.7385494141</v>
+        <v>209836.1019139655</v>
       </c>
     </row>
     <row r="7">
@@ -20756,28 +20756,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>145.8390680802615</v>
+        <v>165.0554503111202</v>
       </c>
       <c r="AB7" t="n">
-        <v>199.5434469129221</v>
+        <v>225.8361488481215</v>
       </c>
       <c r="AC7" t="n">
-        <v>180.4993004005961</v>
+        <v>204.2826637651474</v>
       </c>
       <c r="AD7" t="n">
-        <v>145839.0680802615</v>
+        <v>165055.4503111203</v>
       </c>
       <c r="AE7" t="n">
-        <v>199543.4469129221</v>
+        <v>225836.1488481215</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.255672822034867e-06</v>
+        <v>7.673985160300632e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>180499.3004005961</v>
+        <v>204282.6637651474</v>
       </c>
     </row>
     <row r="8">
@@ -20862,28 +20862,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>141.9472536724661</v>
+        <v>161.1636359033248</v>
       </c>
       <c r="AB8" t="n">
-        <v>194.218494745445</v>
+        <v>220.5111966806444</v>
       </c>
       <c r="AC8" t="n">
-        <v>175.6825541943641</v>
+        <v>199.4659175589153</v>
       </c>
       <c r="AD8" t="n">
-        <v>141947.2536724661</v>
+        <v>161163.6359033248</v>
       </c>
       <c r="AE8" t="n">
-        <v>194218.494745445</v>
+        <v>220511.1966806444</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.301082412891547e-06</v>
+        <v>7.755869398338196e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.13671875</v>
       </c>
       <c r="AH8" t="n">
-        <v>175682.5541943641</v>
+        <v>199465.9175589153</v>
       </c>
     </row>
     <row r="9">
@@ -20968,28 +20968,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.7878349906733</v>
+        <v>159.0042172215321</v>
       </c>
       <c r="AB9" t="n">
-        <v>191.2638828381889</v>
+        <v>217.5565847733884</v>
       </c>
       <c r="AC9" t="n">
-        <v>173.0099263007118</v>
+        <v>196.793289665263</v>
       </c>
       <c r="AD9" t="n">
-        <v>139787.8349906733</v>
+        <v>159004.2172215321</v>
       </c>
       <c r="AE9" t="n">
-        <v>191263.882838189</v>
+        <v>217556.5847733884</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.317983740430133e-06</v>
+        <v>7.786346491419439e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH9" t="n">
-        <v>173009.9263007118</v>
+        <v>196793.289665263</v>
       </c>
     </row>
     <row r="10">
@@ -21074,28 +21074,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>139.2814232751704</v>
+        <v>158.4978055060291</v>
       </c>
       <c r="AB10" t="n">
-        <v>190.5709879877301</v>
+        <v>216.8636899229295</v>
       </c>
       <c r="AC10" t="n">
-        <v>172.3831603622964</v>
+        <v>196.1665237268477</v>
       </c>
       <c r="AD10" t="n">
-        <v>139281.4232751704</v>
+        <v>158497.8055060291</v>
       </c>
       <c r="AE10" t="n">
-        <v>190570.9879877301</v>
+        <v>216863.6899229295</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.329488860983507e-06</v>
+        <v>7.80709294634824e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>172383.1603622964</v>
+        <v>196166.5237268477</v>
       </c>
     </row>
   </sheetData>
@@ -21371,28 +21371,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>199.688419317407</v>
+        <v>236.6099604607399</v>
       </c>
       <c r="AB2" t="n">
-        <v>273.2225049412582</v>
+        <v>323.7401863969767</v>
       </c>
       <c r="AC2" t="n">
-        <v>247.1465325399387</v>
+        <v>292.8428773795507</v>
       </c>
       <c r="AD2" t="n">
-        <v>199688.419317407</v>
+        <v>236609.9604607399</v>
       </c>
       <c r="AE2" t="n">
-        <v>273222.5049412582</v>
+        <v>323740.1863969767</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.368074860940615e-06</v>
+        <v>6.283751109845218e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.833767361111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>247146.5325399387</v>
+        <v>292842.8773795507</v>
       </c>
     </row>
     <row r="3">
@@ -21477,28 +21477,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.7564954224444</v>
+        <v>177.5116569208728</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.9034438271911</v>
+        <v>242.8792802606281</v>
       </c>
       <c r="AC3" t="n">
-        <v>185.3477467321719</v>
+        <v>219.699222635835</v>
       </c>
       <c r="AD3" t="n">
-        <v>149756.4954224444</v>
+        <v>177511.6569208728</v>
       </c>
       <c r="AE3" t="n">
-        <v>204903.4438271911</v>
+        <v>242879.2802606281</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.065510395957949e-06</v>
+        <v>7.584942887983649e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.661892361111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>185347.7467321719</v>
+        <v>219699.222635835</v>
       </c>
     </row>
     <row r="4">
@@ -21583,28 +21583,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>138.351591212111</v>
+        <v>165.9361605099472</v>
       </c>
       <c r="AB4" t="n">
-        <v>189.2987507377574</v>
+        <v>227.0411753963477</v>
       </c>
       <c r="AC4" t="n">
-        <v>171.2323436498645</v>
+        <v>205.3726842708767</v>
       </c>
       <c r="AD4" t="n">
-        <v>138351.591212111</v>
+        <v>165936.1605099472</v>
       </c>
       <c r="AE4" t="n">
-        <v>189298.7507377575</v>
+        <v>227041.1753963477</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.295761695611634e-06</v>
+        <v>8.014518214981602e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.358072916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>171232.3436498645</v>
+        <v>205372.6842708767</v>
       </c>
     </row>
     <row r="5">
@@ -21689,28 +21689,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.5634037203826</v>
+        <v>150.0669342278859</v>
       </c>
       <c r="AB5" t="n">
-        <v>180.010853137883</v>
+        <v>205.3281998963894</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.830869961273</v>
+        <v>185.731964678275</v>
       </c>
       <c r="AD5" t="n">
-        <v>131563.4037203826</v>
+        <v>150066.9342278859</v>
       </c>
       <c r="AE5" t="n">
-        <v>180010.853137883</v>
+        <v>205328.1998963894</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.417622010352346e-06</v>
+        <v>8.241870610523126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.210503472222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>162830.869961273</v>
+        <v>185731.964678275</v>
       </c>
     </row>
     <row r="6">
@@ -21795,28 +21795,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>127.7921954577364</v>
+        <v>146.2957259652396</v>
       </c>
       <c r="AB6" t="n">
-        <v>174.8509196189665</v>
+        <v>200.1682663774729</v>
       </c>
       <c r="AC6" t="n">
-        <v>158.163393255388</v>
+        <v>181.06448797239</v>
       </c>
       <c r="AD6" t="n">
-        <v>127792.1954577364</v>
+        <v>146295.7259652396</v>
       </c>
       <c r="AE6" t="n">
-        <v>174850.9196189665</v>
+        <v>200168.2663774729</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.478393081149932e-06</v>
+        <v>8.355250003599969e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>158163.393255388</v>
+        <v>181064.48797239</v>
       </c>
     </row>
     <row r="7">
@@ -21901,28 +21901,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.2787561763285</v>
+        <v>145.7822866838318</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.1484093428022</v>
+        <v>199.4657561013086</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.5279295740013</v>
+        <v>180.4290242910033</v>
       </c>
       <c r="AD7" t="n">
-        <v>127278.7561763285</v>
+        <v>145782.2866838318</v>
       </c>
       <c r="AE7" t="n">
-        <v>174148.4093428022</v>
+        <v>199465.7561013087</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.491438180116954e-06</v>
+        <v>8.379587988501279e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.123697916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>157527.9295740013</v>
+        <v>180429.0242910033</v>
       </c>
     </row>
   </sheetData>
@@ -40955,28 +40955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>165.1240298320761</v>
+        <v>191.9392464255333</v>
       </c>
       <c r="AB2" t="n">
-        <v>225.9299823742083</v>
+        <v>262.6197447212218</v>
       </c>
       <c r="AC2" t="n">
-        <v>204.3675419512006</v>
+        <v>237.5556848742318</v>
       </c>
       <c r="AD2" t="n">
-        <v>165124.0298320761</v>
+        <v>191939.2464255333</v>
       </c>
       <c r="AE2" t="n">
-        <v>225929.9823742083</v>
+        <v>262619.7447212218</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.765309777592527e-06</v>
+        <v>7.240830333581303e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.323784722222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>204367.5419512006</v>
+        <v>237555.6848742318</v>
       </c>
     </row>
     <row r="3">
@@ -41061,28 +41061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>128.7306067343905</v>
+        <v>155.460482473276</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.1348953274677</v>
+        <v>212.7078905522836</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.3248281243416</v>
+        <v>192.4073480154339</v>
       </c>
       <c r="AD3" t="n">
-        <v>128730.6067343905</v>
+        <v>155460.482473276</v>
       </c>
       <c r="AE3" t="n">
-        <v>176134.8953274677</v>
+        <v>212707.8905522836</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.37113846616671e-06</v>
+        <v>8.40586136802291e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.447048611111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>159324.8281243416</v>
+        <v>192407.3480154339</v>
       </c>
     </row>
     <row r="4">
@@ -41167,28 +41167,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>119.9598646770703</v>
+        <v>137.8935994786066</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.1343791068174</v>
+        <v>188.6721062428077</v>
       </c>
       <c r="AC4" t="n">
-        <v>148.469624328956</v>
+        <v>170.6655052260115</v>
       </c>
       <c r="AD4" t="n">
-        <v>119959.8646770703</v>
+        <v>137893.5994786066</v>
       </c>
       <c r="AE4" t="n">
-        <v>164134.3791068174</v>
+        <v>188672.1062428077</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.56324386886381e-06</v>
+        <v>8.775287181370837e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.217013888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>148469.624328956</v>
+        <v>170665.5052260115</v>
       </c>
     </row>
     <row r="5">
@@ -41273,28 +41273,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>118.1501127680109</v>
+        <v>136.0838475695471</v>
       </c>
       <c r="AB5" t="n">
-        <v>161.6581967042242</v>
+        <v>186.1959238402144</v>
       </c>
       <c r="AC5" t="n">
-        <v>146.2297652995217</v>
+        <v>168.4256461965771</v>
       </c>
       <c r="AD5" t="n">
-        <v>118150.1127680109</v>
+        <v>136083.8475695471</v>
       </c>
       <c r="AE5" t="n">
-        <v>161658.1967042242</v>
+        <v>186195.9238402144</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.603727531682331e-06</v>
+        <v>8.853138766251126e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.171440972222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>146229.7652995217</v>
+        <v>168425.6461965771</v>
       </c>
     </row>
   </sheetData>
@@ -41570,28 +41570,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.4177805703106</v>
+        <v>128.6239808206181</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.5007698467149</v>
+        <v>175.9890050482411</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.9961349701604</v>
+        <v>159.192861408606</v>
       </c>
       <c r="AD2" t="n">
-        <v>103417.7805703106</v>
+        <v>128623.9808206181</v>
       </c>
       <c r="AE2" t="n">
-        <v>141500.7698467149</v>
+        <v>175989.0050482411</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.617144308748741e-06</v>
+        <v>9.523318717859001e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.533854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>127996.1349701604</v>
+        <v>159192.861408606</v>
       </c>
     </row>
     <row r="3">
@@ -41676,28 +41676,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.7401553403654</v>
+        <v>125.7757633900808</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.8371248786178</v>
+        <v>172.0919483052971</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.6821431358593</v>
+        <v>155.6677342916539</v>
       </c>
       <c r="AD3" t="n">
-        <v>100740.1553403655</v>
+        <v>125775.7633900808</v>
       </c>
       <c r="AE3" t="n">
-        <v>137837.1248786178</v>
+        <v>172091.9483052971</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.729952884310621e-06</v>
+        <v>9.755997609256831e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>124682.1431358593</v>
+        <v>155667.7342916538</v>
       </c>
     </row>
   </sheetData>
@@ -41973,28 +41973,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>345.2384751947658</v>
+        <v>394.7042641911311</v>
       </c>
       <c r="AB2" t="n">
-        <v>472.370512608066</v>
+        <v>540.0517873894861</v>
       </c>
       <c r="AC2" t="n">
-        <v>427.2881338609297</v>
+        <v>488.510002768477</v>
       </c>
       <c r="AD2" t="n">
-        <v>345238.4751947658</v>
+        <v>394704.2641911311</v>
       </c>
       <c r="AE2" t="n">
-        <v>472370.512608066</v>
+        <v>540051.7873894861</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.488799878162324e-06</v>
+        <v>4.372723208311779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.587239583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>427288.1338609298</v>
+        <v>488510.002768477</v>
       </c>
     </row>
     <row r="3">
@@ -42079,28 +42079,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>219.8371950230593</v>
+        <v>249.4826215876005</v>
       </c>
       <c r="AB3" t="n">
-        <v>300.7909487629665</v>
+        <v>341.3531292524669</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.0838827758658</v>
+        <v>308.7748656888392</v>
       </c>
       <c r="AD3" t="n">
-        <v>219837.1950230593</v>
+        <v>249482.6215876005</v>
       </c>
       <c r="AE3" t="n">
-        <v>300790.9487629665</v>
+        <v>341353.129252467</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.369673336404797e-06</v>
+        <v>5.920383125945178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.341145833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>272083.8827758658</v>
+        <v>308774.8656888392</v>
       </c>
     </row>
     <row r="4">
@@ -42185,28 +42185,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>187.2371434439185</v>
+        <v>216.9678213544803</v>
       </c>
       <c r="AB4" t="n">
-        <v>256.1861199796367</v>
+        <v>296.8649451217864</v>
       </c>
       <c r="AC4" t="n">
-        <v>231.7360762483324</v>
+        <v>268.5325714120181</v>
       </c>
       <c r="AD4" t="n">
-        <v>187237.1434439186</v>
+        <v>216967.8213544803</v>
       </c>
       <c r="AE4" t="n">
-        <v>256186.1199796367</v>
+        <v>296864.9451217864</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.686768086046021e-06</v>
+        <v>6.477506092382241e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.796440972222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>231736.0762483325</v>
+        <v>268532.571412018</v>
       </c>
     </row>
     <row r="5">
@@ -42291,28 +42291,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.0854681434825</v>
+        <v>206.8161460540443</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.2961499732812</v>
+        <v>282.9749751154309</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.1717454846838</v>
+        <v>255.9682406483694</v>
       </c>
       <c r="AD5" t="n">
-        <v>177085.4681434825</v>
+        <v>206816.1460540442</v>
       </c>
       <c r="AE5" t="n">
-        <v>242296.1499732812</v>
+        <v>282974.9751154309</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.849845385861508e-06</v>
+        <v>6.764026475121304e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.551215277777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>219171.7454846838</v>
+        <v>255968.2406483694</v>
       </c>
     </row>
     <row r="6">
@@ -42397,28 +42397,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.6084718843767</v>
+        <v>200.1685575943462</v>
       </c>
       <c r="AB6" t="n">
-        <v>233.434037946669</v>
+        <v>273.8794513139719</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.1554209918363</v>
+        <v>247.7407808728708</v>
       </c>
       <c r="AD6" t="n">
-        <v>170608.4718843767</v>
+        <v>200168.5575943462</v>
       </c>
       <c r="AE6" t="n">
-        <v>233434.037946669</v>
+        <v>273879.4513139719</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.951473268355218e-06</v>
+        <v>6.942582655668836e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.407986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>211155.4209918363</v>
+        <v>247740.7808728708</v>
       </c>
     </row>
     <row r="7">
@@ -42503,28 +42503,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>166.4401451729902</v>
+        <v>196.0002308829598</v>
       </c>
       <c r="AB7" t="n">
-        <v>227.730749446557</v>
+        <v>268.1761628138598</v>
       </c>
       <c r="AC7" t="n">
-        <v>205.9964463415574</v>
+        <v>242.5818062225919</v>
       </c>
       <c r="AD7" t="n">
-        <v>166440.1451729902</v>
+        <v>196000.2308829598</v>
       </c>
       <c r="AE7" t="n">
-        <v>227730.749446557</v>
+        <v>268176.1628138598</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.013808975349906e-06</v>
+        <v>7.052104033853512e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.323350694444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>205996.4463415574</v>
+        <v>242581.8062225919</v>
       </c>
     </row>
     <row r="8">
@@ -42609,28 +42609,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>162.1983112589346</v>
+        <v>182.0188527078601</v>
       </c>
       <c r="AB8" t="n">
-        <v>221.926885148844</v>
+        <v>249.0462243798256</v>
       </c>
       <c r="AC8" t="n">
-        <v>200.7464947066417</v>
+        <v>225.2776022636587</v>
       </c>
       <c r="AD8" t="n">
-        <v>162198.3112589346</v>
+        <v>182018.8527078601</v>
       </c>
       <c r="AE8" t="n">
-        <v>221926.885148844</v>
+        <v>249046.2243798256</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.07191018724069e-06</v>
+        <v>7.154185571182044e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.247395833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>200746.4947066417</v>
+        <v>225277.6022636587</v>
       </c>
     </row>
     <row r="9">
@@ -42715,28 +42715,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>159.2215815000446</v>
+        <v>179.0421229489702</v>
       </c>
       <c r="AB9" t="n">
-        <v>217.8539921686842</v>
+        <v>244.9733313996659</v>
       </c>
       <c r="AC9" t="n">
-        <v>197.0623129161659</v>
+        <v>221.5934204731829</v>
       </c>
       <c r="AD9" t="n">
-        <v>159221.5815000446</v>
+        <v>179042.1229489702</v>
       </c>
       <c r="AE9" t="n">
-        <v>217853.9921686843</v>
+        <v>244973.3313996659</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.106180054593219e-06</v>
+        <v>7.214396376250397e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.203993055555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>197062.3129161659</v>
+        <v>221593.4204731829</v>
       </c>
     </row>
     <row r="10">
@@ -42821,28 +42821,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>156.8395812095386</v>
+        <v>176.6601226584642</v>
       </c>
       <c r="AB10" t="n">
-        <v>214.5948342847794</v>
+        <v>241.714173515761</v>
       </c>
       <c r="AC10" t="n">
-        <v>194.114204486443</v>
+        <v>218.64531204346</v>
       </c>
       <c r="AD10" t="n">
-        <v>156839.5812095386</v>
+        <v>176660.1226584642</v>
       </c>
       <c r="AE10" t="n">
-        <v>214594.8342847794</v>
+        <v>241714.173515761</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.127352530112743e-06</v>
+        <v>7.251595580531133e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.177951388888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>194114.204486443</v>
+        <v>218645.31204346</v>
       </c>
     </row>
     <row r="11">
@@ -42927,28 +42927,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>153.5672767796104</v>
+        <v>173.387818228536</v>
       </c>
       <c r="AB11" t="n">
-        <v>210.1175229998712</v>
+        <v>237.2368622308527</v>
       </c>
       <c r="AC11" t="n">
-        <v>190.0642015066192</v>
+        <v>214.5953090636361</v>
       </c>
       <c r="AD11" t="n">
-        <v>153567.2767796104</v>
+        <v>173387.818228536</v>
       </c>
       <c r="AE11" t="n">
-        <v>210117.5229998712</v>
+        <v>237236.8622308527</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.163296500180769e-06</v>
+        <v>7.314747718030984e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.132378472222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>190064.2015066192</v>
+        <v>214595.3090636361</v>
       </c>
     </row>
     <row r="12">
@@ -43033,28 +43033,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>151.1269591580337</v>
+        <v>170.9475006069592</v>
       </c>
       <c r="AB12" t="n">
-        <v>206.7785727708163</v>
+        <v>233.8979120017978</v>
       </c>
       <c r="AC12" t="n">
-        <v>187.0439160011781</v>
+        <v>211.5750235581951</v>
       </c>
       <c r="AD12" t="n">
-        <v>151126.9591580337</v>
+        <v>170947.5006069592</v>
       </c>
       <c r="AE12" t="n">
-        <v>206778.5727708163</v>
+        <v>233897.9120017978</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.176295415383454e-06</v>
+        <v>7.337586299263809e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.1171875</v>
       </c>
       <c r="AH12" t="n">
-        <v>187043.9160011781</v>
+        <v>211575.0235581951</v>
       </c>
     </row>
     <row r="13">
@@ -43139,28 +43139,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>150.4783289229213</v>
+        <v>170.2988703718469</v>
       </c>
       <c r="AB13" t="n">
-        <v>205.8910882675896</v>
+        <v>233.0104274985711</v>
       </c>
       <c r="AC13" t="n">
-        <v>186.2411317733468</v>
+        <v>210.7722393303637</v>
       </c>
       <c r="AD13" t="n">
-        <v>150478.3289229213</v>
+        <v>170298.8703718469</v>
       </c>
       <c r="AE13" t="n">
-        <v>205891.0882675896</v>
+        <v>233010.4274985711</v>
       </c>
       <c r="AF13" t="n">
-        <v>4.185355265373202e-06</v>
+        <v>7.353504098304867e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.106336805555555</v>
       </c>
       <c r="AH13" t="n">
-        <v>186241.1317733467</v>
+        <v>210772.2393303637</v>
       </c>
     </row>
     <row r="14">
@@ -43245,28 +43245,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>150.9027481118389</v>
+        <v>170.7232895607645</v>
       </c>
       <c r="AB14" t="n">
-        <v>206.4717973259195</v>
+        <v>233.591136556901</v>
       </c>
       <c r="AC14" t="n">
-        <v>186.7664187741802</v>
+        <v>211.2975263311971</v>
       </c>
       <c r="AD14" t="n">
-        <v>150902.7481118389</v>
+        <v>170723.2895607645</v>
       </c>
       <c r="AE14" t="n">
-        <v>206471.7973259195</v>
+        <v>233591.136556901</v>
       </c>
       <c r="AF14" t="n">
-        <v>4.184567452330615e-06</v>
+        <v>7.352119941866514e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.106336805555555</v>
       </c>
       <c r="AH14" t="n">
-        <v>186766.4187741802</v>
+        <v>211297.5263311971</v>
       </c>
     </row>
   </sheetData>
@@ -43542,28 +43542,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>488.9610594376215</v>
+        <v>540.1653419536788</v>
       </c>
       <c r="AB2" t="n">
-        <v>669.0180929620612</v>
+        <v>739.0780512740449</v>
       </c>
       <c r="AC2" t="n">
-        <v>605.1679451425523</v>
+        <v>668.5414793630092</v>
       </c>
       <c r="AD2" t="n">
-        <v>488961.0594376216</v>
+        <v>540165.3419536788</v>
       </c>
       <c r="AE2" t="n">
-        <v>669018.0929620613</v>
+        <v>739078.0512740449</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.035597249917694e-06</v>
+        <v>3.480644445525408e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.1171875</v>
       </c>
       <c r="AH2" t="n">
-        <v>605167.9451425523</v>
+        <v>668541.4793630092</v>
       </c>
     </row>
     <row r="3">
@@ -43648,28 +43648,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>263.268522517238</v>
+        <v>304.2148087523287</v>
       </c>
       <c r="AB3" t="n">
-        <v>360.2156070955832</v>
+        <v>416.2401223450919</v>
       </c>
       <c r="AC3" t="n">
-        <v>325.8371351201598</v>
+        <v>376.5147492651564</v>
       </c>
       <c r="AD3" t="n">
-        <v>263268.522517238</v>
+        <v>304214.8087523287</v>
       </c>
       <c r="AE3" t="n">
-        <v>360215.6070955832</v>
+        <v>416240.1223450919</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.009886418949672e-06</v>
+        <v>5.146570347451164e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.842447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>325837.1351201598</v>
+        <v>376514.7492651564</v>
       </c>
     </row>
     <row r="4">
@@ -43754,28 +43754,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>229.4050287351033</v>
+        <v>260.0934977063322</v>
       </c>
       <c r="AB4" t="n">
-        <v>313.8820809508112</v>
+        <v>355.871398077093</v>
       </c>
       <c r="AC4" t="n">
-        <v>283.9256156812262</v>
+        <v>321.9075313132586</v>
       </c>
       <c r="AD4" t="n">
-        <v>229405.0287351033</v>
+        <v>260093.4977063322</v>
       </c>
       <c r="AE4" t="n">
-        <v>313882.0809508112</v>
+        <v>355871.3980770929</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.375327890649502e-06</v>
+        <v>5.771434538384842e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.100260416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>283925.6156812262</v>
+        <v>321907.5313132586</v>
       </c>
     </row>
     <row r="5">
@@ -43860,28 +43860,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>205.2253860584185</v>
+        <v>235.9991063756647</v>
       </c>
       <c r="AB5" t="n">
-        <v>280.7984271100388</v>
+        <v>322.904388888797</v>
       </c>
       <c r="AC5" t="n">
-        <v>253.9994193298069</v>
+        <v>292.0868472125023</v>
       </c>
       <c r="AD5" t="n">
-        <v>205225.3860584185</v>
+        <v>235999.1063756647</v>
       </c>
       <c r="AE5" t="n">
-        <v>280798.4271100388</v>
+        <v>322904.388888797</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.55800117889208e-06</v>
+        <v>6.083785503730812e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.787760416666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>253999.4193298069</v>
+        <v>292086.8472125023</v>
       </c>
     </row>
     <row r="6">
@@ -43966,28 +43966,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>197.0124679008848</v>
+        <v>227.7861882181311</v>
       </c>
       <c r="AB6" t="n">
-        <v>269.5611501585296</v>
+        <v>311.6671119372878</v>
       </c>
       <c r="AC6" t="n">
-        <v>243.8346123189289</v>
+        <v>281.9220402016243</v>
       </c>
       <c r="AD6" t="n">
-        <v>197012.4679008848</v>
+        <v>227786.1882181311</v>
       </c>
       <c r="AE6" t="n">
-        <v>269561.1501585296</v>
+        <v>311667.1119372878</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.671211169995143e-06</v>
+        <v>6.277361972124444e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.609809027777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>243834.6123189289</v>
+        <v>281922.0402016243</v>
       </c>
     </row>
     <row r="7">
@@ -44072,28 +44072,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>191.096813538877</v>
+        <v>221.6999416555311</v>
       </c>
       <c r="AB7" t="n">
-        <v>261.4670908801833</v>
+        <v>303.3396408840945</v>
       </c>
       <c r="AC7" t="n">
-        <v>236.5130386980218</v>
+        <v>274.3893312980661</v>
       </c>
       <c r="AD7" t="n">
-        <v>191096.813538877</v>
+        <v>221699.9416555311</v>
       </c>
       <c r="AE7" t="n">
-        <v>261467.0908801832</v>
+        <v>303339.6408840945</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.755667911052752e-06</v>
+        <v>6.421773587271413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.483940972222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>236513.0386980218</v>
+        <v>274389.3312980661</v>
       </c>
     </row>
     <row r="8">
@@ -44178,28 +44178,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>186.9835645411644</v>
+        <v>217.5866926578184</v>
       </c>
       <c r="AB8" t="n">
-        <v>255.839162137777</v>
+        <v>297.7117121416883</v>
       </c>
       <c r="AC8" t="n">
-        <v>231.4222315759414</v>
+        <v>269.2985241759857</v>
       </c>
       <c r="AD8" t="n">
-        <v>186983.5645411644</v>
+        <v>217586.6926578184</v>
       </c>
       <c r="AE8" t="n">
-        <v>255839.162137777</v>
+        <v>297711.7121416883</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.811466297279575e-06</v>
+        <v>6.517182609413454e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.403645833333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>231422.2315759414</v>
+        <v>269298.5241759857</v>
       </c>
     </row>
     <row r="9">
@@ -44284,28 +44284,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>183.4040055874539</v>
+        <v>214.007133704108</v>
       </c>
       <c r="AB9" t="n">
-        <v>250.941451658317</v>
+        <v>292.8140016622283</v>
       </c>
       <c r="AC9" t="n">
-        <v>226.9919517106597</v>
+        <v>264.8682443107041</v>
       </c>
       <c r="AD9" t="n">
-        <v>183404.0055874539</v>
+        <v>214007.133704108</v>
       </c>
       <c r="AE9" t="n">
-        <v>250941.451658317</v>
+        <v>292814.0016622283</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.858439428541953e-06</v>
+        <v>6.597501429073847e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.336371527777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>226991.9517106597</v>
+        <v>264868.2443107041</v>
       </c>
     </row>
     <row r="10">
@@ -44390,28 +44390,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>180.5211294147289</v>
+        <v>211.124257531383</v>
       </c>
       <c r="AB10" t="n">
-        <v>246.9969732952761</v>
+        <v>288.8695232991874</v>
       </c>
       <c r="AC10" t="n">
-        <v>223.423928826476</v>
+        <v>261.3002214265203</v>
       </c>
       <c r="AD10" t="n">
-        <v>180521.1294147289</v>
+        <v>211124.257531383</v>
       </c>
       <c r="AE10" t="n">
-        <v>246996.9732952761</v>
+        <v>288869.5232991874</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.891842544106311e-06</v>
+        <v>6.654617034165683e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.290798611111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>223423.928826476</v>
+        <v>261300.2214265203</v>
       </c>
     </row>
     <row r="11">
@@ -44496,28 +44496,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>178.5771298963859</v>
+        <v>199.0930329497678</v>
       </c>
       <c r="AB11" t="n">
-        <v>244.3371073910747</v>
+        <v>272.4078710464619</v>
       </c>
       <c r="AC11" t="n">
-        <v>221.0179167910255</v>
+        <v>246.4096461607157</v>
       </c>
       <c r="AD11" t="n">
-        <v>178577.1298963859</v>
+        <v>199093.0329497678</v>
       </c>
       <c r="AE11" t="n">
-        <v>244337.1073910747</v>
+        <v>272407.8710464619</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.913668443480748e-06</v>
+        <v>6.69193688976546e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.262586805555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>221017.9167910255</v>
+        <v>246409.6461607157</v>
       </c>
     </row>
     <row r="12">
@@ -44602,28 +44602,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>175.9490298986763</v>
+        <v>196.4649329520582</v>
       </c>
       <c r="AB12" t="n">
-        <v>240.7412250306212</v>
+        <v>268.8119886860084</v>
       </c>
       <c r="AC12" t="n">
-        <v>217.7652203962</v>
+        <v>243.1569497658901</v>
       </c>
       <c r="AD12" t="n">
-        <v>175949.0298986763</v>
+        <v>196464.9329520582</v>
       </c>
       <c r="AE12" t="n">
-        <v>240741.2250306212</v>
+        <v>268811.9886860084</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.93957483708606e-06</v>
+        <v>6.73623393575998e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.227864583333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>217765.2203962</v>
+        <v>243156.9497658901</v>
       </c>
     </row>
     <row r="13">
@@ -44708,28 +44708,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>174.1690929069642</v>
+        <v>194.6849959603461</v>
       </c>
       <c r="AB13" t="n">
-        <v>238.305836713284</v>
+        <v>266.3766003686711</v>
       </c>
       <c r="AC13" t="n">
-        <v>215.5622621217796</v>
+        <v>240.9539914914697</v>
       </c>
       <c r="AD13" t="n">
-        <v>174169.0929069642</v>
+        <v>194684.9959603461</v>
       </c>
       <c r="AE13" t="n">
-        <v>238305.836713284</v>
+        <v>266376.6003686711</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.950867367631965e-06</v>
+        <v>6.755542904526822e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.212673611111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>215562.2621217796</v>
+        <v>240953.9914914697</v>
       </c>
     </row>
     <row r="14">
@@ -44814,28 +44814,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>171.6110775633211</v>
+        <v>192.126980616703</v>
       </c>
       <c r="AB14" t="n">
-        <v>234.8058472684408</v>
+        <v>262.876610923828</v>
       </c>
       <c r="AC14" t="n">
-        <v>212.3963067572851</v>
+        <v>237.7880361269753</v>
       </c>
       <c r="AD14" t="n">
-        <v>171611.0775633211</v>
+        <v>192126.980616703</v>
       </c>
       <c r="AE14" t="n">
-        <v>234805.8472684408</v>
+        <v>262876.610923828</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.976489075593261e-06</v>
+        <v>6.799353169796127e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.177951388888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>212396.3067572851</v>
+        <v>237788.0361269753</v>
       </c>
     </row>
     <row r="15">
@@ -44920,28 +44920,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>170.0427571595971</v>
+        <v>190.558660212979</v>
       </c>
       <c r="AB15" t="n">
-        <v>232.6600021026536</v>
+        <v>260.7307657580408</v>
       </c>
       <c r="AC15" t="n">
-        <v>210.4552580424074</v>
+        <v>235.8469874120975</v>
       </c>
       <c r="AD15" t="n">
-        <v>170042.7571595971</v>
+        <v>190558.660212979</v>
       </c>
       <c r="AE15" t="n">
-        <v>232660.0021026536</v>
+        <v>260730.7657580408</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.987117339636465e-06</v>
+        <v>6.8175263168708e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.164930555555555</v>
       </c>
       <c r="AH15" t="n">
-        <v>210455.2580424074</v>
+        <v>235846.9874120975</v>
       </c>
     </row>
     <row r="16">
@@ -45026,28 +45026,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>167.9926983032318</v>
+        <v>188.5086013566137</v>
       </c>
       <c r="AB16" t="n">
-        <v>229.8550211331625</v>
+        <v>257.9257847885497</v>
       </c>
       <c r="AC16" t="n">
-        <v>207.917980519828</v>
+        <v>233.3097098895182</v>
       </c>
       <c r="AD16" t="n">
-        <v>167992.6983032318</v>
+        <v>188508.6013566137</v>
       </c>
       <c r="AE16" t="n">
-        <v>229855.0211331625</v>
+        <v>257925.7847885496</v>
       </c>
       <c r="AF16" t="n">
-        <v>4.001351621837185e-06</v>
+        <v>6.841865353131525e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH16" t="n">
-        <v>207917.980519828</v>
+        <v>233309.7098895182</v>
       </c>
     </row>
     <row r="17">
@@ -45132,28 +45132,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>166.3488649388071</v>
+        <v>186.864767992189</v>
       </c>
       <c r="AB17" t="n">
-        <v>227.6058558031479</v>
+        <v>255.676619458535</v>
       </c>
       <c r="AC17" t="n">
-        <v>205.883472372186</v>
+        <v>231.2752017418761</v>
       </c>
       <c r="AD17" t="n">
-        <v>166348.8649388071</v>
+        <v>186864.767992189</v>
       </c>
       <c r="AE17" t="n">
-        <v>227605.8558031479</v>
+        <v>255676.619458535</v>
       </c>
       <c r="AF17" t="n">
-        <v>4.011410514592362e-06</v>
+        <v>6.85906493875577e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.134548611111111</v>
       </c>
       <c r="AH17" t="n">
-        <v>205883.472372186</v>
+        <v>231275.2017418761</v>
       </c>
     </row>
     <row r="18">
@@ -45238,28 +45238,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>165.9425123365404</v>
+        <v>186.4584153899223</v>
       </c>
       <c r="AB18" t="n">
-        <v>227.0498662457153</v>
+        <v>255.1206299011025</v>
       </c>
       <c r="AC18" t="n">
-        <v>205.3805456777784</v>
+        <v>230.7722750474685</v>
       </c>
       <c r="AD18" t="n">
-        <v>165942.5123365404</v>
+        <v>186458.4153899223</v>
       </c>
       <c r="AE18" t="n">
-        <v>227049.8662457153</v>
+        <v>255120.6299011025</v>
       </c>
       <c r="AF18" t="n">
-        <v>4.011695200236376e-06</v>
+        <v>6.859551719480985e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.132378472222222</v>
       </c>
       <c r="AH18" t="n">
-        <v>205380.5456777784</v>
+        <v>230772.2750474685</v>
       </c>
     </row>
     <row r="19">
@@ -45344,28 +45344,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>165.7865760540499</v>
+        <v>186.3024791074318</v>
       </c>
       <c r="AB19" t="n">
-        <v>226.8365073445887</v>
+        <v>254.9072709999759</v>
       </c>
       <c r="AC19" t="n">
-        <v>205.1875494507241</v>
+        <v>230.5792788204143</v>
       </c>
       <c r="AD19" t="n">
-        <v>165786.5760540499</v>
+        <v>186302.4791074318</v>
       </c>
       <c r="AE19" t="n">
-        <v>226836.5073445887</v>
+        <v>254907.2709999759</v>
       </c>
       <c r="AF19" t="n">
-        <v>4.011220724163019e-06</v>
+        <v>6.858740418272295e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>6</v>
+        <v>5.134548611111111</v>
       </c>
       <c r="AH19" t="n">
-        <v>205187.5494507241</v>
+        <v>230579.2788204143</v>
       </c>
     </row>
     <row r="20">
@@ -45450,28 +45450,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>166.3239040658235</v>
+        <v>186.8398071192054</v>
       </c>
       <c r="AB20" t="n">
-        <v>227.5717032355358</v>
+        <v>255.6424668909229</v>
       </c>
       <c r="AC20" t="n">
-        <v>205.8525792776934</v>
+        <v>231.2443086473835</v>
       </c>
       <c r="AD20" t="n">
-        <v>166323.9040658235</v>
+        <v>186839.8071192054</v>
       </c>
       <c r="AE20" t="n">
-        <v>227571.7032355358</v>
+        <v>255642.466890923</v>
       </c>
       <c r="AF20" t="n">
-        <v>4.011505409807034e-06</v>
+        <v>6.859227198997508e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5.134548611111111</v>
       </c>
       <c r="AH20" t="n">
-        <v>205852.5792776934</v>
+        <v>231244.3086473835</v>
       </c>
     </row>
   </sheetData>
@@ -45747,28 +45747,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>91.69348158972801</v>
+        <v>116.1072669899694</v>
       </c>
       <c r="AB2" t="n">
-        <v>125.4590667419238</v>
+        <v>158.8630849867141</v>
       </c>
       <c r="AC2" t="n">
-        <v>113.4854294950137</v>
+        <v>143.701415121366</v>
       </c>
       <c r="AD2" t="n">
-        <v>91693.48158972801</v>
+        <v>116107.2669899694</v>
       </c>
       <c r="AE2" t="n">
-        <v>125459.0667419238</v>
+        <v>158863.0849867141</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.65364132633129e-06</v>
+        <v>9.974896785133727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.685763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>113485.4294950137</v>
+        <v>143701.4151213659</v>
       </c>
     </row>
   </sheetData>
@@ -46044,28 +46044,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>227.2018216283853</v>
+        <v>255.3366430621742</v>
       </c>
       <c r="AB2" t="n">
-        <v>310.8675557887637</v>
+        <v>349.362859695175</v>
       </c>
       <c r="AC2" t="n">
-        <v>281.1987925697309</v>
+        <v>316.020158699825</v>
       </c>
       <c r="AD2" t="n">
-        <v>227201.8216283853</v>
+        <v>255336.6430621742</v>
       </c>
       <c r="AE2" t="n">
-        <v>310867.5557887637</v>
+        <v>349362.859695175</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.196180986377705e-06</v>
+        <v>5.888747837383165e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.096354166666668</v>
       </c>
       <c r="AH2" t="n">
-        <v>281198.792569731</v>
+        <v>316020.158699825</v>
       </c>
     </row>
     <row r="3">
@@ -46150,28 +46150,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>159.9475896471563</v>
+        <v>188.0823215723942</v>
       </c>
       <c r="AB3" t="n">
-        <v>218.847348544781</v>
+        <v>257.3425299816439</v>
       </c>
       <c r="AC3" t="n">
-        <v>197.9608647539127</v>
+        <v>232.7821201027801</v>
       </c>
       <c r="AD3" t="n">
-        <v>159947.5896471563</v>
+        <v>188082.3215723942</v>
       </c>
       <c r="AE3" t="n">
-        <v>218847.348544781</v>
+        <v>257342.5299816439</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.925464582053058e-06</v>
+        <v>7.232403661373083e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.776909722222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>197960.8647539127</v>
+        <v>232782.1201027801</v>
       </c>
     </row>
     <row r="4">
@@ -46256,28 +46256,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>147.4967736174855</v>
+        <v>175.4609133421311</v>
       </c>
       <c r="AB4" t="n">
-        <v>201.8115927617577</v>
+        <v>240.0733624237737</v>
       </c>
       <c r="AC4" t="n">
-        <v>182.5509775929823</v>
+        <v>217.1610976591987</v>
       </c>
       <c r="AD4" t="n">
-        <v>147496.7736174855</v>
+        <v>175460.9133421311</v>
       </c>
       <c r="AE4" t="n">
-        <v>201811.5927617577</v>
+        <v>240073.3624237737</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.169813255983836e-06</v>
+        <v>7.682599608132675e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.438368055555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>182550.9775929823</v>
+        <v>217161.0976591987</v>
       </c>
     </row>
     <row r="5">
@@ -46362,28 +46362,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>139.6773534095579</v>
+        <v>158.4339308682675</v>
       </c>
       <c r="AB5" t="n">
-        <v>191.1127170648035</v>
+        <v>216.7762938255939</v>
       </c>
       <c r="AC5" t="n">
-        <v>172.8731875765757</v>
+        <v>196.0874685903806</v>
       </c>
       <c r="AD5" t="n">
-        <v>139677.3534095579</v>
+        <v>158433.9308682675</v>
       </c>
       <c r="AE5" t="n">
-        <v>191112.7170648035</v>
+        <v>216776.2938255939</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.310381676187813e-06</v>
+        <v>7.941587438924658e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.262586805555555</v>
       </c>
       <c r="AH5" t="n">
-        <v>172873.1875765757</v>
+        <v>196087.4685903806</v>
       </c>
     </row>
     <row r="6">
@@ -46468,28 +46468,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.4788607270545</v>
+        <v>153.2354381857641</v>
       </c>
       <c r="AB6" t="n">
-        <v>183.999910035295</v>
+        <v>209.6634867960853</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.4392168670738</v>
+        <v>189.6534978808787</v>
       </c>
       <c r="AD6" t="n">
-        <v>134478.8607270545</v>
+        <v>153235.4381857641</v>
       </c>
       <c r="AE6" t="n">
-        <v>183999.910035295</v>
+        <v>209663.4867960853</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.389497136481055e-06</v>
+        <v>8.087352336998657e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.167100694444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>166439.2168670738</v>
+        <v>189653.4978808787</v>
       </c>
     </row>
     <row r="7">
@@ -46574,28 +46574,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>131.5835034561385</v>
+        <v>150.340080914848</v>
       </c>
       <c r="AB7" t="n">
-        <v>180.0383544830818</v>
+        <v>205.7019312438722</v>
       </c>
       <c r="AC7" t="n">
-        <v>162.8557466166844</v>
+        <v>186.0700276304893</v>
       </c>
       <c r="AD7" t="n">
-        <v>131583.5034561385</v>
+        <v>150340.080914848</v>
       </c>
       <c r="AE7" t="n">
-        <v>180038.3544830818</v>
+        <v>205701.9312438722</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.430047729075214e-06</v>
+        <v>8.162064068111882e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.119357638888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>162855.7466166844</v>
+        <v>186070.0276304893</v>
       </c>
     </row>
     <row r="8">
@@ -46680,28 +46680,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.833065210155</v>
+        <v>150.5896426688646</v>
       </c>
       <c r="AB8" t="n">
-        <v>180.3798158848147</v>
+        <v>206.043392645605</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.1646194214801</v>
+        <v>186.378900435285</v>
       </c>
       <c r="AD8" t="n">
-        <v>131833.065210155</v>
+        <v>150589.6426688646</v>
       </c>
       <c r="AE8" t="n">
-        <v>180379.8158848147</v>
+        <v>206043.392645605</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.430674800094711e-06</v>
+        <v>8.163219404160026e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.119357638888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>163164.6194214801</v>
+        <v>186378.900435285</v>
       </c>
     </row>
   </sheetData>
@@ -46977,28 +46977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.5817182877336</v>
+        <v>336.9798577831023</v>
       </c>
       <c r="AB2" t="n">
-        <v>394.8502382881571</v>
+        <v>461.0707079209419</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.1662857217246</v>
+        <v>417.0667666737692</v>
       </c>
       <c r="AD2" t="n">
-        <v>288581.7182877336</v>
+        <v>336979.8577831023</v>
       </c>
       <c r="AE2" t="n">
-        <v>394850.2382881571</v>
+        <v>461070.7079209419</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.742164291110438e-06</v>
+        <v>4.89867638763378e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.962239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>357166.2857217246</v>
+        <v>417066.7666737692</v>
       </c>
     </row>
     <row r="3">
@@ -47083,28 +47083,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.3717613164367</v>
+        <v>228.4278026931229</v>
       </c>
       <c r="AB3" t="n">
-        <v>272.7892394943657</v>
+        <v>312.544997168004</v>
       </c>
       <c r="AC3" t="n">
-        <v>246.7546173392056</v>
+        <v>282.7161412980408</v>
       </c>
       <c r="AD3" t="n">
-        <v>199371.7613164367</v>
+        <v>228427.8026931229</v>
       </c>
       <c r="AE3" t="n">
-        <v>272789.2394943658</v>
+        <v>312544.997168004</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.575620434632666e-06</v>
+        <v>6.387584963839951e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.106770833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>246754.6173392056</v>
+        <v>282716.1412980409</v>
       </c>
     </row>
     <row r="4">
@@ -47189,28 +47189,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>171.8441517793914</v>
+        <v>200.9854445020981</v>
       </c>
       <c r="AB4" t="n">
-        <v>235.1247496933768</v>
+        <v>274.9971520196643</v>
       </c>
       <c r="AC4" t="n">
-        <v>212.6847735823676</v>
+        <v>248.7518097919151</v>
       </c>
       <c r="AD4" t="n">
-        <v>171844.1517793914</v>
+        <v>200985.4445020981</v>
       </c>
       <c r="AE4" t="n">
-        <v>235124.7496933768</v>
+        <v>274997.1520196644</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.860683968931649e-06</v>
+        <v>6.896830164418496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.655381944444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>212684.7735823676</v>
+        <v>248751.8097919151</v>
       </c>
     </row>
     <row r="5">
@@ -47295,28 +47295,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>162.5966135951118</v>
+        <v>191.5673141172263</v>
       </c>
       <c r="AB5" t="n">
-        <v>222.4718599770604</v>
+        <v>262.1108505285011</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.2394579021302</v>
+        <v>237.0953588290267</v>
       </c>
       <c r="AD5" t="n">
-        <v>162596.6135951118</v>
+        <v>191567.3141172263</v>
       </c>
       <c r="AE5" t="n">
-        <v>222471.8599770604</v>
+        <v>262110.8505285011</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.021176851814415e-06</v>
+        <v>7.183538987193922e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.4296875</v>
       </c>
       <c r="AH5" t="n">
-        <v>201239.4579021302</v>
+        <v>237095.3588290267</v>
       </c>
     </row>
     <row r="6">
@@ -47401,28 +47401,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.6753815272984</v>
+        <v>185.6460820494129</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.3701690355597</v>
+        <v>254.0091595870004</v>
       </c>
       <c r="AC6" t="n">
-        <v>193.9109809732891</v>
+        <v>229.7668819001856</v>
       </c>
       <c r="AD6" t="n">
-        <v>156675.3815272984</v>
+        <v>185646.0820494129</v>
       </c>
       <c r="AE6" t="n">
-        <v>214370.1690355597</v>
+        <v>254009.1595870004</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.114755774122234e-06</v>
+        <v>7.350710902667993e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.305989583333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>193910.9809732891</v>
+        <v>229766.8819001855</v>
       </c>
     </row>
     <row r="7">
@@ -47507,28 +47507,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>153.0433445661432</v>
+        <v>172.4709625564988</v>
       </c>
       <c r="AB7" t="n">
-        <v>209.4006558311478</v>
+        <v>235.9823798515545</v>
       </c>
       <c r="AC7" t="n">
-        <v>189.4157511343491</v>
+        <v>213.4605527219406</v>
       </c>
       <c r="AD7" t="n">
-        <v>153043.3445661432</v>
+        <v>172470.9625564988</v>
       </c>
       <c r="AE7" t="n">
-        <v>209400.6558311478</v>
+        <v>235982.3798515545</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.170299392524296e-06</v>
+        <v>7.449935523465506e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.236545138888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>189415.7511343491</v>
+        <v>213460.5527219407</v>
       </c>
     </row>
     <row r="8">
@@ -47613,28 +47613,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>149.2885500851214</v>
+        <v>168.716168075477</v>
       </c>
       <c r="AB8" t="n">
-        <v>204.2631803723748</v>
+        <v>230.8449043927816</v>
       </c>
       <c r="AC8" t="n">
-        <v>184.7685891228677</v>
+        <v>208.8133907104592</v>
       </c>
       <c r="AD8" t="n">
-        <v>149288.5500851214</v>
+        <v>168716.1680754769</v>
       </c>
       <c r="AE8" t="n">
-        <v>204263.1803723748</v>
+        <v>230844.9043927816</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.211957106325841e-06</v>
+        <v>7.524353989063642e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.184461805555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>184768.5891228677</v>
+        <v>208813.3907104592</v>
       </c>
     </row>
     <row r="9">
@@ -47719,28 +47719,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.4325932108974</v>
+        <v>165.8602112012529</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.3555341811384</v>
+        <v>226.9372582015452</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.2338831997058</v>
+        <v>205.2786847872974</v>
       </c>
       <c r="AD9" t="n">
-        <v>146432.5932108974</v>
+        <v>165860.2112012529</v>
       </c>
       <c r="AE9" t="n">
-        <v>200355.5341811384</v>
+        <v>226937.2582015452</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.244055682902395e-06</v>
+        <v>7.581695753618729e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.145399305555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>181233.8831997058</v>
+        <v>205278.6847872974</v>
       </c>
     </row>
     <row r="10">
@@ -47825,28 +47825,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>143.5783715026474</v>
+        <v>163.005989493003</v>
       </c>
       <c r="AB10" t="n">
-        <v>196.450262120538</v>
+        <v>223.0319861409448</v>
       </c>
       <c r="AC10" t="n">
-        <v>177.7013248234841</v>
+        <v>201.7461264110756</v>
       </c>
       <c r="AD10" t="n">
-        <v>143578.3715026474</v>
+        <v>163005.989493003</v>
       </c>
       <c r="AE10" t="n">
-        <v>196450.262120538</v>
+        <v>223031.9861409448</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.266293254762639e-06</v>
+        <v>7.621421552887297e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.119357638888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>177701.3248234841</v>
+        <v>201746.1264110756</v>
       </c>
     </row>
     <row r="11">
@@ -47931,28 +47931,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>143.262056138582</v>
+        <v>162.6896741289375</v>
       </c>
       <c r="AB11" t="n">
-        <v>196.0174654845749</v>
+        <v>222.5991895049817</v>
       </c>
       <c r="AC11" t="n">
-        <v>177.3098336910233</v>
+        <v>201.3546352786148</v>
       </c>
       <c r="AD11" t="n">
-        <v>143262.056138582</v>
+        <v>162689.6741289375</v>
       </c>
       <c r="AE11" t="n">
-        <v>196017.4654845749</v>
+        <v>222599.1895049817</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.278066086923946e-06</v>
+        <v>7.642452858382422e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.104166666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>177309.8336910233</v>
+        <v>201354.6352786148</v>
       </c>
     </row>
     <row r="12">
@@ -48037,28 +48037,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>143.9488043986903</v>
+        <v>163.3764223890458</v>
       </c>
       <c r="AB12" t="n">
-        <v>196.9571047512496</v>
+        <v>223.5388287716563</v>
       </c>
       <c r="AC12" t="n">
-        <v>178.1597951048788</v>
+        <v>202.2045966924703</v>
       </c>
       <c r="AD12" t="n">
-        <v>143948.8043986903</v>
+        <v>163376.4223890458</v>
       </c>
       <c r="AE12" t="n">
-        <v>196957.1047512496</v>
+        <v>223538.8287716563</v>
       </c>
       <c r="AF12" t="n">
-        <v>4.276657371964474e-06</v>
+        <v>7.63993629191292e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.106336805555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>178159.7951048788</v>
+        <v>202204.5966924703</v>
       </c>
     </row>
   </sheetData>
